--- a/docs/Final Report.xlsx
+++ b/docs/Final Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Bill\Documents\GitHubProjects\InterestingWords\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43C46CF-1BC9-421B-BC61-E9EDFCF44B61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B929265A-91F1-49BA-BCCD-DEDEA047D4FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -143,39 +143,6 @@
     <t xml:space="preserve">doc1 doc2 doc3 doc4 doc5 doc6 </t>
   </si>
   <si>
-    <t xml:space="preserve">But I've been there long enough to know that the ways of Washington must change.
-Tonight, I say to the American people, to Democrats and Republicans and Independents across this great land - enough!
-On November 4th, we must stand up and say: "Eight is enough."
-For eighteen long months, you have stood up, one by one, and said enough to the politics of the past.
-She believed that over a span of three centuries, she had seen enough to know that there is no challenge too great, no injustice too crippling, no destiny too far out of reach for America.
-No longer can we assume that a high-school education is enough to compete for a job that could easily go to a college-educated student in Bangalore or Beijing.
-He was talking about what an awful job his own party has done governing this country, and he said that with all the mistakes and misjudgments the Republicans have made over the last six years, the slogan for the Democrats should come down to just two words:
-Had enough?
-Because I think we've all had enough.
-Four years after 9/11, I've had enough of being told that we can find the money to give Paris Hilton more tax cuts, but we can't find enough to protect our ports or our railroads or our chemical plants or our borders.
-Four years after 9/11, I've had enough of being told that we can find the money to give Paris Hilton more tax cuts, but we can't find enough to protect our ports or our railroads or our chemical plants or our borders.
-I've had enough of the closed-door deals that give billions to the HMOs when we're told that we can't do a thing for the 45 million uninsured or the millions more who can't pay their medical bills.
-I've had enough of being told that we can't afford body armor for our troops and health care for our veterans and benefits for the wounded heroes who've risked their lives for this country.
-I've had enough of that.
-I've had enough of giving billions away to the oil companies when we're told that we can't invest in the renewable energy that will create jobs and lower gas prices and finally free us from our dependence on the oil wells of Saudi Arabia.
-I've had enough of our kids going to schools where the rats outnumber the computers.
-I've had enough of Katrina survivors living out of their cars and begging FEMA for trailers.
-And I've had enough of being told that all we can do about this is sit and wait and hope that the good fortune of a few trickles on down to everyone else in this country.
-And in the end, we know that it isn't enough to just say that you've had enough.
-And in the end, we know that it isn't enough to just say that you've had enough.
-And I've wondered - if she is lucky enough to live as long as 105-year-old Marguerite Lewis, if she someday has the chance to look back across the twenty-first century, what will she see?
-But elections are not enough.
-We know that the temptation to take a bribe is greater when you're not making enough on the job.
-What is absolutely clear is that it is not enough for the President to respond to Iraqâ€™s reality by saying that he is â€œopen toâ€ or â€œinterested inâ€ new ideas while acting as if all thatâ€™s required is doing more of the same.
-It is not enough for him to simply lay out benchmarks for progress with no consequences attached for failing to meet them.
-And it is not enough for the President to tell us that victory in this war is simply a matter of American resolve.
-The second lesson is that in any conflict, it is not enough to simply plan for war; you must also plan for success.
-threats we havenâ€™t paid nearly enough attention to because we have been distracted in Iraq.
-Some weapons experts believe that terrorists are likely to find enough fissile material to build a bomb in the next ten years - and we can imagine with horror what the world will be like if they succeed.
-For a scientist or other employee to simply walk out of the lab with enough material to construct a weapon of mass destruction is far too easy, and the consequences would be far too devastating.
-</t>
-  </si>
-  <si>
     <t>many</t>
   </si>
   <si>
@@ -258,85 +225,7 @@
     <t>American</t>
   </si>
   <si>
-    <t xml:space="preserve">It was here, in Springfield, where North, South, East and West come together that I was reminded of the essential decency of the American people - where I came to believe that through this decency, we can build a more hopeful America.
-It's time to admit that no amount of American lives can resolve the political disagreement that lies at the heart of someone else's civil war.
-It is that promise that has always set this country apart - that through hard work and sacrifice, each of us can pursue our individual dreams but still come together as one American family, to ensure that the next generation can pursue their dreams as well.
-We meet at one of those defining moments - a moment when our nation is at war, our economy is in turmoil, and the American promise has been threatened once more.
-We are more compassionate than a government that lets veterans sleep on our streets and families slide into poverty; that sits on its hands while a major American city drowns before our eyes.
-Tonight, I say to the American people, to Democrats and Republicans and Independents across this great land - enough!
-This moment - this election - is our chance to keep, in the 21st century, the American promise alive.
-We measure progress in the 23 million new jobs that were created when Bill Clinton was President - when the average American family saw its income go up $7,500 instead of down $2,000 like it has under George Bush.
-It's a promise that says the market should reward drive and innovation and generate growth, but that businesses should live up to their responsibilities to create American jobs, look out for American workers, and play by the rules of the road.
-It's a promise that says the market should reward drive and innovation and generate growth, but that businesses should live up to their responsibilities to create American jobs, look out for American workers, and play by the rules of the road.
-It should ensure opportunity not just for those with the most money and influence, but for every American who's willing to work.
-Change means a tax code that doesn't reward the lobbyists who wrote it, but the American workers and small businesses who deserve it.
-I'll make it easier for the American people to afford these new cars.
-And we will keep our promise to every young American - if you commit to serving your community or your country, we will make sure you can afford a college education.
-Now is the time to finally keep the promise of affordable, accessible health care for every single American.
-Passions fly on immigration, but I don't know anyone who benefits when a mother is separated from her infant child or an employer undercuts American wages by hiring illegal workers.
-Change happens because the American people demand it - because they rise up and insist on new ideas and new leadership, a new politics for a new time.
-Instead, it is that American spirit - that American promise - that pushes us forward even when the path is uncertain; that binds us together in spite of our differences; that makes us fix our eye not on what is seen, but what is unseen, that better place around the bend.
-Instead, it is that American spirit - that American promise - that pushes us forward even when the path is uncertain; that binds us together in spite of our differences; that makes us fix our eye not on what is seen, but what is unseen, that better place around the bend.
-Let us keep that promise - that American promise - and in the words of Scripture hold firmly, without wavering, to the hope that we confess.
-Because we've always fought to bring all of our people under the blanket of the American Dream.
-That in a global economy that's more connected and more competitive - we are the party that will guarantee every American an affordable, world-class, top-notch, life-long education - from early childhood to high school, from college to on-the-job training.
-And when we do go to war, let us always be honest with the American people about why we are there and how we will win.
-If we do all this, if we can be trusted to lead, this will not be a Democratic Agenda, it will be an American agenda.
-Our time to write a new chapter in the American story.
-My own city of Chicago has been the home of some of the most corrupt local politics in American history, from patronage machines to questionable elections.
-Throughout American history, there have been moments that call on us to meet the challenges of an uncertain world, and pay whatever price is required to secure our freedom.
-In each case, what has been required to meet the challenges we face has been good judgment and clear vision from our leaders, and a fundamental seriousness and engagement on the part of the American people ?
-A few Tuesdays ago, the American people embraced this seriousness with regards to Americaâ€™s policy in Iraq.
-And now, after three long years of watching the same back and forth in Washington, the American people have sent a clear message that the days of using the war on terror as a political football are over.
-the American people have determined that all these phrases have become meaningless in the face of a conflict that grows more deadly and chaotic with each passing day ?
-Iraq is descending into chaos based on ethnic divisions that were around long before American troops arrived.
-When I came here and gave a speech on this war a year ago, I suggested that we begin to move towards a phased redeployment of American troops from Iraqi soil.
-300,000 Iraqi security forces have supposedly been recruited and trained over the last two years, and yet American troop levels have not been reduced by a single soldier.
-The addition of 4,000 American troops in Baghdad has not succeeded in securing that increasingly perilous city.
-And polls show that almost two-thirds of all Iraqis now sympathize with attacks on American soldiers.
-â€œrejected the notion of an American â€˜timelineâ€™ for action on urgent Iraqi political issues; ordered American commanders to lift checkpoints they had set up around the Shiite district of Sadr City to hunt for a kidnapped American soldier and a fugitive Shiite death squad leader; and blamed the Americans for the deteriorating security situation in Iraq.â€
-This is now the reality of Iraq.
-â€œrejected the notion of an American â€˜timelineâ€™ for action on urgent Iraqi political issues; ordered American commanders to lift checkpoints they had set up around the Shiite district of Sadr City to hunt for a kidnapped American soldier and a fugitive Shiite death squad leader; and blamed the Americans for the deteriorating security situation in Iraq.â€
-This is now the reality of Iraq.
-â€œrejected the notion of an American â€˜timelineâ€™ for action on urgent Iraqi political issues; ordered American commanders to lift checkpoints they had set up around the Shiite district of Sadr City to hunt for a kidnapped American soldier and a fugitive Shiite death squad leader; and blamed the Americans for the deteriorating security situation in Iraq.â€
-This is now the reality of Iraq.
-And it is not enough for the President to tell us that victory in this war is simply a matter of American resolve.
-The American people have been extraordinarily resolved.
-Itâ€™s not clear that these troop levels are sustainable for a significant period of time, and according to our commanders on the ground, adding American forces will only relieve the Iraqis from doing more on their own.
-The American soldiers I met when I traveled to Iraq this year were performing their duties with bravery, with brilliance, and without question.
-Moreover, it could be suspended if at any point U.S. commanders believe that a further reduction would put American troops in danger.
-As a phased redeployment is executed, the majority of the U.S. troops remaining in Iraq should be dedicated to the critical, but less visible roles, of protecting logistics supply points, critical infrastructure, and American enclaves like the Green Zone, as well as acting as a rapid reaction force to respond to emergencies and go after terrorists.
-But instead of effectively targeting this aid, we have seen some of the largest waste, fraud, and abuse of foreign aid in American history.
-and that is the loss of our governmentâ€™s credibility with the American people.
-But, when I think about what is at stake I am reminded by a quote from the late President Kennedy given in a speech at American University in 1963 about threats posed by the Soviet Union.
-</t>
-  </si>
-  <si>
     <t>right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Let's be the generation that says right here, right now, that we will have universal health care in America by the end of the next president's first term.
-Let's be the generation that says right here, right now, that we will have universal health care in America by the end of the next president's first term.
-Finally, there is one other thing that is not too late to get right about this war - and that is the homecoming of the men and women - our veterans - who have sacrificed the most.
-It will take your time, your energy, and your advice - to push us forward when we're doing right, and to let us know when we're not.
-Senator McCain likes to talk about judgment, but really, what does it say about your judgment when you think George Bush has been right more than ninety percent of the time?
-That's the change we need right now.
-Unlike John McCain, I will stop giving tax breaks to corporations that ship jobs overseas, and I will start giving them to companies that create good jobs right here in America.
-I'll help our auto companies re-tool, so that the fuel-efficient cars of the future are built right here in America.
-And I thought about how she saw women finally win the right to vote.
-It's the timidity - the smallness - of our politics that's holding us back right now.
-It allows us to say to the child who didn't have the foresight to choose the right parents or be born in the right suburb - pick yourself up by your bootstraps.
-It allows us to say to the child who didn't have the foresight to choose the right parents or be born in the right suburb - pick yourself up by your bootstraps.
-I know that honoring their memory and making that freedom real may seem like an impossible task - an effort bigger than you can imagine - but sometimes all it takes to move us there is doing what little you can to right the wrongs you see.
-We must always reserve the right to strike unilaterally at terrorists wherever they may exist.
-According to a Pew survey, 42% of Americans now agree with the statement that the U.S. should "mind its own business internationally and let other countries get along the best they can on their own.â€
-We cannot afford to be a country of isolationists right now.
-This is a city of two and a half million, and in a non-descript building right in the middle of town stood this facility that once operated on the fringes of the Soviet biological weapons program.
-Our guide then brought us right up to what looked like a mini-refrigerator.
-Inside, staring right at us, were rows upon rows of test tubes.
-And the Kiev story is heading in the right direction - while we were in Ukraine, Dick, through his tireless and personal intervention, was able to achieve a breakthrough with that government, bringing that facility and others under the Cooperative Threat Reduction program.
-Much of what President Kennedy described in 1963 remains true to this day - and we owe it to ourselves and our children to get it right.
-</t>
   </si>
   <si>
     <t>great</t>
@@ -372,28 +261,6 @@
   </si>
   <si>
     <t>hard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">doc1 doc2 doc4 doc5 doc6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">All of us know what those challenges are today - a war with no end, a dependence on oil that threatens our future, schools where too many children aren't learning, and families struggling paycheck to paycheck despite working as hard as they can.
-We'll have to make hard choices.
-Let us begin this hard work together.
-It is that promise that has always set this country apart - that through hard work and sacrifice, each of us can pursue our individual dreams but still come together as one American family, to ensure that the next generation can pursue their dreams as well.
-This country is more decent than one where a woman in Ohio, on the brink of retirement, finds herself one illness away from disaster after a lifetime of hard work.
-Tell that to the proud auto workers at a Michigan plant who, after they found out it was closing, kept showing up every day and working as hard as ever, because they knew there were people who counted on the brakes that they made.
-They work hard and give back and keep going without complaint.
-She's the one who taught me about hard work.
-I believe that as hard as it will be, the change we need is coming.
-Certainly it is not due to lack of effort on the part of ordinary Kenyans - we know how hard Kenyans are willing to work, the tremendous sacrifices that Kenyan mothers make for their children, the Herculean efforts that Kenyan fathers make for their families.
-The hard truth is that nations, by and large, will act in their self-interest and if Kenya does not act, it will fall behind.
-And yet, the reason I speak of the freedom that you fought so hard to win is because today that freedom is in jeopardy.
-When people are judged by merit, not connections, then the best and brightest can lead the country, people will work hard, and the entire economy will grow - everyone will benefit and more resources will be available for all, not just select groups.
-And you will determine the direction of this country in the 21st century - whether the hard work of the many is lost to the selfish desires of a few, or whether you build an open, honest, stronger Kenya where everyone rises together.
-making the hard choices and sacrifices necessary to uphold our most deeply held values and ideals.
-While they are often difficult to use, they are easy to transport, hard to detect, and, as we saw in Kiev, not always well secured.
-</t>
   </si>
   <si>
     <t>new</t>
@@ -440,100 +307,13 @@
     <t>never</t>
   </si>
   <si>
-    <t xml:space="preserve">It was here we learned to disagree without being disagreeable - that it's possible to compromise so long as you know those principles that can never be compromised; and that so long as we're willing to listen to each other, we can assume the best in people instead of the worst.
-That's why we made the tax system more fair and just for working families, and that's why we passed ethics reforms that the cynics said could never, ever be passed.
-Most of all, let's be the generation that never forgets what happened on that September day and confront the terrorists with everything we've got.
-As Commander-in-Chief, I will never hesitate to defend this nation, but I will only send our troops into harm's way with a clear mission and a sacred commitment to give them the equipment they need in battle and the care and benefits they deserve when they come home.
-What the nay-sayers don't understand is that this election has never been about me.
-In the Republicans who never thought they'd pick up a Democratic ballot, but did.
-And she saw people lining up to vote for the first time - and she got in that line - and she never forgot it.
-You know, you probably never thought you'd hear this at a Take Back America conference, but Newt Gingrich made a great point a few weeks ago.
-And on a more personal level, because he never fully reconciled the traditions of his village with more modern conceptions of family - because he related to women as his father had, expecting them to obey him no matter what he did - his family life was unstable, and his children never knew him well.
-And on a more personal level, because he never fully reconciled the traditions of his village with more modern conceptions of family - because he related to women as his father had, expecting them to obey him no matter what he did - his family life was unstable, and his children never knew him well.
-It never did, and it never will."
-It never did, and it never will."
-And this has been true for those of us who looked on the rubble and ashes of 9/11, and made a solemn pledge that such an atrocity would never again happen on United States soil; that we would do whatever it took to hunt down those responsible, and use every tool at our disposal ?
-But this is one story that shows our job is far from finished at a time when demand for these weapons has never been greater.
-</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t xml:space="preserve">And I accepted the job, sight unseen, motivated then by a single, simple, powerful idea - that I might play a small part in building a better America.
-Let's recruit a new army of teachers, and give them better pay and more support in exchange for more accountability.
-We can control costs by focusing on prevention, by providing better treatment to the chronically ill, and using technology to cut the bureaucracy.
-I want to win that next battle - for better schools, and better jobs, and health care for all.
-I want to win that next battle - for better schools, and better jobs, and health care for all.
-I want us to take up the unfinished business of perfecting our union, and building a better America.
-America, we are better than these last eight years.
-We are a better country than this.
-She's the one who put off buying a new car or a new dress for herself so that I could have a better life.
-Now is the time to help families with paid sick days and better family leave, because nobody in America should have to choose between keeping their jobs and caring for a sick child or ailing parent.
-But I will also go through the federal budget, line by line, eliminating programs that no longer work and making the ones we do need work better and cost less - because we cannot meet twenty-first century challenges with a twentieth century bureaucracy.
-And I will restore our moral standing, so that America is once again that last, best hope for all who are called to the cause of freedom, who long for lives of peace, and who yearn for a better future.
-I've seen it in Washington, when we worked across party lines to open up government and hold lobbyists more accountable, to give better care for our veterans and keep nuclear weapons out of terrorist hands.
-Instead, it is that American spirit - that American promise - that pushes us forward even when the path is uncertain; that binds us together in spite of our differences; that makes us fix our eye not on what is seen, but what is unseen, that better place around the bend.
-That we're better off if we dismantle it - if we divvy it up into individual tax breaks, hand 'em out, and encourage everyone to go buy your own health care, your own retirement security, your own child care, their own schools, your own private security force, your own roads, their own levees...
-We know that there are some things we do better together.
-We have the opportunity to muster the courage to fulfill the promise of our forefathers and lead our great nations towards a better future.
-Moreover, without a coherent strategy or better cooperation from the Iraqis, we would only be putting more of our soldiers in the crossfire of a civil war.
-An increase in the quality and quantity of U.S. personnel in training and advisory roles can guard against militia infiltration of Iraqi units; develop the trust and goodwill of Iraqi soldiers and the local populace; and lead to better intelligence while undercutting grassroots support for the insurgents.
-Now, few people understand these challenges better than the co-founder of the Cooperative Threat Reduction Program, Dick Lugar, and this is something that became particularly clear to me during one incident on the trip.
-</t>
-  </si>
-  <si>
     <t>long</t>
   </si>
   <si>
-    <t xml:space="preserve">In the face of a politics that's shut you out, that's told you to settle, that's divided us for too long, you believe we can be one people, reaching for what's possible, building that more perfect union.
-It was here we learned to disagree without being disagreeable - that it's possible to compromise so long as you know those principles that can never be compromised; and that so long as we're willing to listen to each other, we can assume the best in people instead of the worst.
-It was here we learned to disagree without being disagreeable - that it's possible to compromise so long as you know those principles that can never be compromised; and that so long as we're willing to listen to each other, we can assume the best in people instead of the worst.
-But I've been there long enough to know that the ways of Washington must change.
-It is because men and women of every race, from every walk of life, continued to march for freedom long after Lincoln was laid to rest, that today we have the chance to face the challenges of this millennium together, as one people - as Americans.
-But Washington has a long way to go.
-And I will restore our moral standing, so that America is once again that last, best hope for all who are called to the cause of freedom, who long for lives of peace, and who yearn for a better future.
-For eighteen long months, you have stood up, one by one, and said enough to the politics of the past.
-In the young people who voted for the first time, and in those who got involved again after a very long time.
-And in the midst of this rally, someone comes up to me and says that there's a woman who'd like to come meet you, and she's traveled a long way and she wants to take a picture and shake your hand.
-And I've wondered - if she is lucky enough to live as long as 105-year-old Marguerite Lewis, if she someday has the chance to look back across the twenty-first century, what will she see?
-I discovered the beauty of the land, a beauty that haunts you long after you've left.
-And now, after three long years of watching the same back and forth in Washington, the American people have sent a clear message that the days of using the war on terror as a political football are over.
-Iraq is descending into chaos based on ethnic divisions that were around long before American troops arrived.
-And I believe that it remains possible to salvage an acceptable outcome to this long and misguided war.
-I have long said that the only solution in Iraq is a political one.
-In the absence of a genuine commitment on the part of all of the factions in Iraq to deal with this issue, it is doubtful that a unified Iraqi government can function for long, and it is doubtful that U.S. forces, no matter how large, can prevent an escalation of widespread sectarian killing.
-But I have long believed it has also been a failure of conception ?
-</t>
-  </si>
-  <si>
     <t>together</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It was here, in Springfield, where North, South, East and West come together that I was reminded of the essential decency of the American people - where I came to believe that through this decency, we can build a more hopeful America.
-And that is why, in the shadow of the Old State Capitol, where Lincoln once called on a divided house to stand together, where common hopes and common dreams still, I stand before you today to announce my candidacy for President of the United States.
-It is because men and women of every race, from every walk of life, continued to march for freedom long after Lincoln was laid to rest, that today we have the chance to face the challenges of this millennium together, as one people - as Americans.
-Let us begin this hard work together.
-Politics doesn't have to divide us on this anymore - we can work together to keep our country safe.
-We can work together to track terrorists down with a stronger military, we can tighten the net around their finances, and we can improve our intelligence capabilities.
-It must be about us - it must be about what we can do together.
-It is that promise that has always set this country apart - that through hard work and sacrifice, each of us can pursue our individual dreams but still come together as one American family, to ensure that the next generation can pursue their dreams as well.
-The men and women who serve in our battlefields may be Democrats and Republicans and Independents, but they have fought together and bled together and some died together under the same proud flag.
-The men and women who serve in our battlefields may be Democrats and Republicans and Independents, but they have fought together and bled together and some died together under the same proud flag.
-The men and women who serve in our battlefields may be Democrats and Republicans and Independents, but they have fought together and bled together and some died together under the same proud flag.
-Instead, it is that American spirit - that American promise - that pushes us forward even when the path is uncertain; that binds us together in spite of our differences; that makes us fix our eye not on what is seen, but what is unseen, that better place around the bend.
-And it is that promise that forty five years ago today, brought Americans from every corner of this land to stand together on a Mall in Washington, before Lincoln's Memorial, and hear a young preacher from Georgia speak of his dream.
-That together, our dreams can be one.
-Thank you Roger Hickey and Bob Borosage for bringing us all together today and thank you for your leadership in the cause of a more progressive America.
-The idea that everybody has a stake in the country, that we're all in it together and everybody's got a shot at opportunity.
-We know that there are some things we do better together.
-Among African nations, Kenya remains a model for representative democracy - a place where many different ethnic factions have found a way to live and work together in peace and stability.
-And then there are anonymous Kenyan whistleblowers who show us what is, so that we can all work together to demand what should be.
-And you will determine the direction of this country in the 21st century - whether the hard work of the many is lost to the selfish desires of a few, or whether you build an open, honest, stronger Kenya where everyone rises together.
-For only through this phased redeployment can we send a clear message to the Iraqi factions that the U.S. is not going to hold together this country indefinitely ?
-Additional steps should also be taken to consolidate and secure dangerous pathogen collections, strengthen bio-reconnaissance networks to provide early warning of bio-attack and natural disease outbreaks, and have our experts work together to develop improved medical countermeasures.
-And we need to work together to obtain a bilateral agreement on biological threat reduction.
-</t>
   </si>
   <si>
     <t>last</t>
@@ -566,23 +346,6 @@
     <t>possible</t>
   </si>
   <si>
-    <t xml:space="preserve">doc1 doc3 doc4 doc5 doc6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the face of a politics that's shut you out, that's told you to settle, that's divided us for too long, you believe we can be one people, reaching for what's possible, building that more perfect union.
-It was here we learned to disagree without being disagreeable - that it's possible to compromise so long as you know those principles that can never be compromised; and that so long as we're willing to listen to each other, we can assume the best in people instead of the worst.
-Let's make it possible for hardworking Americans to save for retirement.
-But the life of a tall, gangly, self-made Springfield lawyer tells us that a different future is possible.
-These are Americans who still believe in an America where anything's possible - they just don't think their leaders do.
-Wealth declarations do little good if no one can access them, and accountability in government spending is not possible if no one knows how much was available and allocated to a given project in the first place.
-It is rooted in the bankrupt idea that the goal of politics or business is to funnel as much of the pie as possible to one's family, tribe, or circle with little regard for the public good.
-And I believe that it remains possible to salvage an acceptable outcome to this long and misguided war.
-We must instead turn our focus to those concrete objectives that are possible to attain ?
-When possible, this should be done in consultation with the Iraqi government ?
-On our trip, we saw two areas where this is possible: elimination of heavy conventional weapons, and interdiction efforts to help stop the flow of dangerous materials across borders.
-</t>
-  </si>
-  <si>
     <t>even</t>
   </si>
   <si>
@@ -612,37 +375,1579 @@
     <t>So</t>
   </si>
   <si>
-    <t xml:space="preserve">So let us begin.
-So let me spell out exactly what that change would mean if I am President.
-So don't tell me that Democrats won't defend this country.
-So let us agree that patriotism has no party.
-So I've got news for you, John McCain.
-So I understand the cynicism.
-So let it be said that we are the party of opportunity.
-So what explains this?
-So if the government found ways to downsize the bureaucracy - to cut out the positions that aren't necessary or useful - it could use the extra money to increase the salary of other government officials.
-So far, Congress has given the Administration unprecedented flexibility in determining how to spend more than $20 billion dollars in Iraq.
+    <t>simply</t>
+  </si>
+  <si>
+    <t>political</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Files</t>
+  </si>
+  <si>
+    <t>Sentences</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>willing</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>nuclear</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>future</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t>higher</t>
+  </si>
+  <si>
+    <t>greater</t>
+  </si>
+  <si>
+    <t>honest</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>certain</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>economic</t>
+  </si>
+  <si>
+    <t>fundamental</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>young</t>
+  </si>
+  <si>
+    <t>tough</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>especially</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>different</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>freedom</t>
+  </si>
+  <si>
+    <t>firmly</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>entire</t>
+  </si>
+  <si>
+    <t>fuel-efficient</t>
+  </si>
+  <si>
+    <t>effective</t>
+  </si>
+  <si>
+    <t>African</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>regional</t>
+  </si>
+  <si>
+    <t>yet</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>sometimes</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>similar</t>
+  </si>
+  <si>
+    <t>significant</t>
+  </si>
+  <si>
+    <t>self-interest</t>
+  </si>
+  <si>
+    <t>responsible</t>
+  </si>
+  <si>
+    <t>regard</t>
+  </si>
+  <si>
+    <t>larger</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>petty</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>past</t>
+  </si>
+  <si>
+    <t>often</t>
+  </si>
+  <si>
+    <t>necessary</t>
+  </si>
+  <si>
+    <t>military</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>likely</t>
+  </si>
+  <si>
+    <t>legacy</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>individual</t>
+  </si>
+  <si>
+    <t>anymore</t>
+  </si>
+  <si>
+    <t>Fortunately</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>civil</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>ago</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>almost</t>
+  </si>
+  <si>
+    <t>ahead</t>
+  </si>
+  <si>
+    <t>already</t>
+  </si>
+  <si>
+    <t>affordable</t>
+  </si>
+  <si>
+    <t>destiny</t>
+  </si>
+  <si>
+    <t>rubble</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>rich</t>
+  </si>
+  <si>
+    <t>respectful</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>repressive</t>
+  </si>
+  <si>
+    <t>renewable</t>
+  </si>
+  <si>
+    <t>robust</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>accountable</t>
+  </si>
+  <si>
+    <t>saw</t>
+  </si>
+  <si>
+    <t>regardless</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>accessible</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>sensational</t>
+  </si>
+  <si>
+    <t>accept</t>
+  </si>
+  <si>
+    <t>settle</t>
+  </si>
+  <si>
+    <t>able</t>
+  </si>
+  <si>
+    <t>significantly</t>
+  </si>
+  <si>
+    <t>Well</t>
+  </si>
+  <si>
+    <t>Such</t>
+  </si>
+  <si>
+    <t>adjust</t>
+  </si>
+  <si>
+    <t>realistic</t>
+  </si>
+  <si>
+    <t>advantageous</t>
+  </si>
+  <si>
+    <t>recently</t>
+  </si>
+  <si>
+    <t>anonymous</t>
+  </si>
+  <si>
+    <t>ordinary</t>
+  </si>
+  <si>
+    <t>outside</t>
+  </si>
+  <si>
+    <t>particularly</t>
+  </si>
+  <si>
+    <t>alternative</t>
+  </si>
+  <si>
+    <t>politically</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>powerfully</t>
+  </si>
+  <si>
+    <t>presumptuousness</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>productive</t>
+  </si>
+  <si>
+    <t>profound</t>
+  </si>
+  <si>
+    <t>progress</t>
+  </si>
+  <si>
+    <t>prosperous</t>
+  </si>
+  <si>
+    <t>proud</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>rationale</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>slough</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>recent</t>
+  </si>
+  <si>
+    <t>Rather</t>
+  </si>
+  <si>
+    <t>early</t>
+  </si>
+  <si>
+    <t>Nunn-Lugar</t>
+  </si>
+  <si>
+    <t>unwanted</t>
+  </si>
+  <si>
+    <t>tremendous</t>
+  </si>
+  <si>
+    <t>tribal</t>
+  </si>
+  <si>
+    <t>trivial</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>turn</t>
+  </si>
+  <si>
+    <t>twentieth</t>
+  </si>
+  <si>
+    <t>twenty-first</t>
+  </si>
+  <si>
+    <t>ultimately</t>
+  </si>
+  <si>
+    <t>unfulfilled</t>
+  </si>
+  <si>
+    <t>unite</t>
+  </si>
+  <si>
+    <t>universal</t>
+  </si>
+  <si>
+    <t>unseen</t>
+  </si>
+  <si>
+    <t>uphold</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>urgent</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>victory</t>
+  </si>
+  <si>
+    <t>warmth</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>wide</t>
+  </si>
+  <si>
+    <t>worn-out</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Certainly</t>
+  </si>
+  <si>
+    <t>British</t>
+  </si>
+  <si>
+    <t>Instead</t>
+  </si>
+  <si>
+    <t>tolerant</t>
+  </si>
+  <si>
+    <t>told</t>
+  </si>
+  <si>
+    <t>Kenyan</t>
+  </si>
+  <si>
+    <t>Now</t>
+  </si>
+  <si>
+    <t>soul-trying</t>
+  </si>
+  <si>
+    <t>speak</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>spite</t>
+  </si>
+  <si>
+    <t>spur</t>
+  </si>
+  <si>
+    <t>statistic</t>
+  </si>
+  <si>
+    <t>steadfast</t>
+  </si>
+  <si>
+    <t>Much</t>
+  </si>
+  <si>
+    <t>strategically</t>
+  </si>
+  <si>
+    <t>Most</t>
+  </si>
+  <si>
+    <t>stronger</t>
+  </si>
+  <si>
+    <t>strongest</t>
+  </si>
+  <si>
+    <t>struggles</t>
+  </si>
+  <si>
+    <t>subordinate</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>surely</t>
+  </si>
+  <si>
+    <t>talent</t>
+  </si>
+  <si>
+    <t>temporarily</t>
+  </si>
+  <si>
+    <t>temptation</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>therefore</t>
+  </si>
+  <si>
+    <t>third</t>
+  </si>
+  <si>
+    <t>thoughtful</t>
+  </si>
+  <si>
+    <t>timidity</t>
+  </si>
+  <si>
+    <t>solar</t>
+  </si>
+  <si>
+    <t>army</t>
+  </si>
+  <si>
+    <t>obvious</t>
+  </si>
+  <si>
+    <t>finished</t>
+  </si>
+  <si>
+    <t>focus</t>
+  </si>
+  <si>
+    <t>deeply</t>
+  </si>
+  <si>
+    <t>decent</t>
+  </si>
+  <si>
+    <t>fought</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>cynicism</t>
+  </si>
+  <si>
+    <t>crowd</t>
+  </si>
+  <si>
+    <t>fugitive</t>
+  </si>
+  <si>
+    <t>critically</t>
+  </si>
+  <si>
+    <t>funnel</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>gifts</t>
+  </si>
+  <si>
+    <t>crippling</t>
+  </si>
+  <si>
+    <t>creatively</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>greatest</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>convene</t>
+  </si>
+  <si>
+    <t>harm</t>
+  </si>
+  <si>
+    <t>hear</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>consistent</t>
+  </si>
+  <si>
+    <t>historic</t>
+  </si>
+  <si>
+    <t>historical</t>
+  </si>
+  <si>
+    <t>homegrown</t>
+  </si>
+  <si>
+    <t>desperately</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>ease</t>
+  </si>
+  <si>
+    <t>determine</t>
+  </si>
+  <si>
+    <t>easier</t>
+  </si>
+  <si>
+    <t>easiest</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>divvy</t>
+  </si>
+  <si>
+    <t>dismiss</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>dismantle</t>
+  </si>
+  <si>
+    <t>disillusionment</t>
+  </si>
+  <si>
+    <t>disagreeable</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>disagree</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>everywhere</t>
+  </si>
+  <si>
+    <t>extended</t>
+  </si>
+  <si>
+    <t>extraordinarily</t>
+  </si>
+  <si>
+    <t>failure</t>
+  </si>
+  <si>
+    <t>fair</t>
+  </si>
+  <si>
+    <t>direct</t>
+  </si>
+  <si>
+    <t>farthest</t>
+  </si>
+  <si>
+    <t>father</t>
+  </si>
+  <si>
+    <t>fed</t>
+  </si>
+  <si>
+    <t>federal</t>
+  </si>
+  <si>
+    <t>fellow</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>concrete</t>
+  </si>
+  <si>
+    <t>hopeful</t>
+  </si>
+  <si>
+    <t>hostile</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>lift</t>
+  </si>
+  <si>
+    <t>broader</t>
+  </si>
+  <si>
+    <t>brightest</t>
+  </si>
+  <si>
+    <t>lobbyist</t>
+  </si>
+  <si>
+    <t>biological</t>
+  </si>
+  <si>
+    <t>longer</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>magical</t>
+  </si>
+  <si>
+    <t>biggest</t>
+  </si>
+  <si>
+    <t>matter</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>bigger</t>
+  </si>
+  <si>
+    <t>modest</t>
+  </si>
+  <si>
+    <t>mutual</t>
+  </si>
+  <si>
+    <t>benefit</t>
+  </si>
+  <si>
+    <t>believe</t>
+  </si>
+  <si>
+    <t>basic</t>
+  </si>
+  <si>
+    <t>bankrupt</t>
+  </si>
+  <si>
+    <t>away</t>
+  </si>
+  <si>
+    <t>next-generation</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>nomination</t>
+  </si>
+  <si>
+    <t>non-proliferation</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>notion</t>
+  </si>
+  <si>
+    <t>lifetime</t>
+  </si>
+  <si>
+    <t>lie</t>
+  </si>
+  <si>
+    <t>build</t>
+  </si>
+  <si>
+    <t>collective</t>
+  </si>
+  <si>
+    <t>human</t>
+  </si>
+  <si>
+    <t>imagine</t>
+  </si>
+  <si>
+    <t>imperfect</t>
+  </si>
+  <si>
+    <t>conceivable</t>
+  </si>
+  <si>
+    <t>impose</t>
+  </si>
+  <si>
+    <t>impossible</t>
+  </si>
+  <si>
+    <t>impressive</t>
+  </si>
+  <si>
+    <t>improbable</t>
+  </si>
+  <si>
+    <t>increasingly</t>
+  </si>
+  <si>
+    <t>independent</t>
+  </si>
+  <si>
+    <t>indigenous</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>intelligent</t>
+  </si>
+  <si>
+    <t>interested</t>
+  </si>
+  <si>
+    <t>international</t>
+  </si>
+  <si>
+    <t>invest</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>large</t>
+  </si>
+  <si>
+    <t>chronic</t>
+  </si>
+  <si>
+    <t>chemical</t>
+  </si>
+  <si>
+    <t>lead</t>
+  </si>
+  <si>
+    <t>â€œ</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>Not</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>partisan</t>
+  </si>
+  <si>
+    <t>flag-draped</t>
+  </si>
+  <si>
+    <t>equal</t>
+  </si>
+  <si>
+    <t>â€™</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>tired</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>acceptable</t>
+  </si>
+  <si>
+    <t>Enough</t>
+  </si>
+  <si>
+    <t>nearly</t>
+  </si>
+  <si>
+    <t>publicly</t>
+  </si>
+  <si>
+    <t>magic</t>
+  </si>
+  <si>
+    <t>no-bid</t>
+  </si>
+  <si>
+    <t>low-enriched</t>
+  </si>
+  <si>
+    <t>medical</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>policy-by-slogan</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>overseas</t>
+  </si>
+  <si>
+    <t>overly-rigid</t>
+  </si>
+  <si>
+    <t>original</t>
+  </si>
+  <si>
+    <t>oppose</t>
+  </si>
+  <si>
+    <t>opponent</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>oldest</t>
+  </si>
+  <si>
+    <t>official</t>
+  </si>
+  <si>
+    <t>won't-do</t>
+  </si>
+  <si>
+    <t>tempting</t>
+  </si>
+  <si>
+    <t>terrorist</t>
+  </si>
+  <si>
+    <t>timetable</t>
+  </si>
+  <si>
+    <t>tonight</t>
+  </si>
+  <si>
+    <t>tragic</t>
+  </si>
+  <si>
+    <t>truly</t>
+  </si>
+  <si>
+    <t>twenty</t>
+  </si>
+  <si>
+    <t>typical</t>
+  </si>
+  <si>
+    <t>understand</t>
+  </si>
+  <si>
+    <t>uninsured</t>
+  </si>
+  <si>
+    <t>unnecessary</t>
+  </si>
+  <si>
+    <t>unprecedented</t>
+  </si>
+  <si>
+    <t>vast</t>
+  </si>
+  <si>
+    <t>vital</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>weak</t>
+  </si>
+  <si>
+    <t>ten</t>
+  </si>
+  <si>
+    <t>succumb</t>
+  </si>
+  <si>
+    <t>substantial</t>
+  </si>
+  <si>
+    <t>won't-even-try</t>
+  </si>
+  <si>
+    <t>safeguard</t>
+  </si>
+  <si>
+    <t>wherever</t>
+  </si>
+  <si>
+    <t>sensible</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>sew</t>
+  </si>
+  <si>
+    <t>skewed</t>
+  </si>
+  <si>
+    <t>slowly</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>sooner</t>
+  </si>
+  <si>
+    <t>specific</t>
+  </si>
+  <si>
+    <t>spent</t>
+  </si>
+  <si>
+    <t>stagnant</t>
+  </si>
+  <si>
+    <t>stale</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>scare</t>
+  </si>
+  <si>
+    <t>load</t>
+  </si>
+  <si>
+    <t>crucial</t>
+  </si>
+  <si>
+    <t>chronically</t>
+  </si>
+  <si>
+    <t>civic</t>
+  </si>
+  <si>
+    <t>civilian</t>
+  </si>
+  <si>
+    <t>closed-door</t>
+  </si>
+  <si>
+    <t>committed</t>
+  </si>
+  <si>
+    <t>conventional</t>
+  </si>
+  <si>
+    <t>corporate</t>
+  </si>
+  <si>
+    <t>deepest</t>
+  </si>
+  <si>
+    <t>desperate</t>
+  </si>
+  <si>
+    <t>diplomatic</t>
+  </si>
+  <si>
+    <t>disastrous</t>
+  </si>
+  <si>
+    <t>distant</t>
+  </si>
+  <si>
+    <t>divided</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>bloated</t>
+  </si>
+  <si>
+    <t>administrative</t>
+  </si>
+  <si>
+    <t>Many</t>
+  </si>
+  <si>
+    <t>Moreover</t>
+  </si>
+  <si>
+    <t>Yet</t>
+  </si>
+  <si>
+    <t>absolutely</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>al</t>
+  </si>
+  <si>
+    <t>alone</t>
+  </si>
+  <si>
+    <t>argument</t>
+  </si>
+  <si>
+    <t>armor</t>
+  </si>
+  <si>
+    <t>ask</t>
+  </si>
+  <si>
+    <t>effectively</t>
+  </si>
+  <si>
+    <t>hole</t>
+  </si>
+  <si>
+    <t>ideological</t>
+  </si>
+  <si>
+    <t>ignore</t>
+  </si>
+  <si>
+    <t>ill</t>
+  </si>
+  <si>
+    <t>ill-conceived</t>
+  </si>
+  <si>
+    <t>Democratic</t>
+  </si>
+  <si>
+    <t>inexcusable</t>
+  </si>
+  <si>
+    <t>eighty</t>
+  </si>
+  <si>
+    <t>involved</t>
+  </si>
+  <si>
+    <t>judgment</t>
+  </si>
+  <si>
+    <t>lately</t>
+  </si>
+  <si>
+    <t>later</t>
+  </si>
+  <si>
+    <t>let</t>
+  </si>
+  <si>
+    <t>likeliest</t>
+  </si>
+  <si>
+    <t>heavy</t>
+  </si>
+  <si>
+    <t>heartbroken</t>
+  </si>
+  <si>
+    <t>harder</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>engaging</t>
+  </si>
+  <si>
+    <t>eve</t>
+  </si>
+  <si>
+    <t>exacerbated</t>
+  </si>
+  <si>
+    <t>faster</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>fissile</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doc1 doc2 doc3 doc5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was here, in Springfield, where North, South, East and West come together that I was reminded of the essential decency of the American people - where I came to believe that through this decency, we can build a more hopeful America.
+It's time to admit that no amount of American lives can resolve the political disagreement that lies at the heart of someone else's civil war.
+We are more compassionate than a government that lets veterans sleep on our streets and families slide into poverty; that sits on its hands while a major American city drowns before our eyes.
+Tonight, I say to the American people, to Democrats and Republicans and Independents across this great land - enough!
+We measure progress in the 23 million new jobs that were created when Bill Clinton was President - when the average American family saw its income go up $7,500 instead of down $2,000 like it has under George Bush.
+It's a promise that says the market should reward drive and innovation and generate growth, but that businesses should live up to their responsibilities to create American jobs, look out for American workers, and play by the rules of the road.
+It's a promise that says the market should reward drive and innovation and generate growth, but that businesses should live up to their responsibilities to create American jobs, look out for American workers, and play by the rules of the road.
+Change means a tax code that doesn't reward the lobbyists who wrote it, but the American workers and small businesses who deserve it.
+I'll make it easier for the American people to afford these new cars.
+And we will keep our promise to every young American - if you commit to serving your community or your country, we will make sure you can afford a college education.
+Passions fly on immigration, but I don't know anyone who benefits when a mother is separated from her infant child or an employer undercuts American wages by hiring illegal workers.
+Change happens because the American people demand it - because they rise up and insist on new ideas and new leadership, a new politics for a new time.
+Instead, it is that American spirit - that American promise - that pushes us forward even when the path is uncertain; that binds us together in spite of our differences; that makes us fix our eye not on what is seen, but what is unseen, that better place around the bend.
+Let us keep that promise - that American promise - and in the words of Scripture hold firmly, without wavering, to the hope that we confess.
+Because we've always fought to bring all of our people under the blanket of the American Dream.
+And when we do go to war, let us always be honest with the American people about why we are there and how we will win.
+Our time to write a new chapter in the American story.
+My own city of Chicago has been the home of some of the most corrupt local politics in American history, from patronage machines to questionable elections.
+Throughout American history, there have been moments that call on us to meet the challenges of an uncertain world, and pay whatever price is required to secure our freedom.
+In each case, what has been required to meet the challenges we face has been good judgment and clear vision from our leaders, and a fundamental seriousness and engagement on the part of the American people ?
+A few Tuesdays ago, the American people embraced this seriousness with regards to Americaâ€™s policy in Iraq.
+the American people have determined that all these phrases have become meaningless in the face of a conflict that grows more deadly and chaotic with each passing day ?
+Iraq is descending into chaos based on ethnic divisions that were around long before American troops arrived.
+When I came here and gave a speech on this war a year ago, I suggested that we begin to move towards a phased redeployment of American troops from Iraqi soil.
+300,000 Iraqi security forces have supposedly been recruited and trained over the last two years, and yet American troop levels have not been reduced by a single soldier.
+The addition of 4,000 American troops in Baghdad has not succeeded in securing that increasingly perilous city.
+And polls show that almost two-thirds of all Iraqis now sympathize with attacks on American soldiers.
+â€œrejected the notion of an American â€˜timelineâ€™ for action on urgent Iraqi political issues; ordered American commanders to lift checkpoints they had set up around the Shiite district of Sadr City to hunt for a kidnapped American soldier and a fugitive Shiite death squad leader; and blamed the Americans for the deteriorating security situation in Iraq.â€
+This is now the reality of Iraq.
+â€œrejected the notion of an American â€˜timelineâ€™ for action on urgent Iraqi political issues; ordered American commanders to lift checkpoints they had set up around the Shiite district of Sadr City to hunt for a kidnapped American soldier and a fugitive Shiite death squad leader; and blamed the Americans for the deteriorating security situation in Iraq.â€
+This is now the reality of Iraq.
+And it is not enough for the President to tell us that victory in this war is simply a matter of American resolve.
+The American people have been extraordinarily resolved.
+Itâ€™s not clear that these troop levels are sustainable for a significant period of time, and according to our commanders on the ground, adding American forces will only relieve the Iraqis from doing more on their own.
+The American soldiers I met when I traveled to Iraq this year were performing their duties with bravery, with brilliance, and without question.
+Moreover, it could be suspended if at any point U.S. commanders believe that a further reduction would put American troops in danger.
+But instead of effectively targeting this aid, we have seen some of the largest waste, fraud, and abuse of foreign aid in American history.
+and that is the loss of our governmentâ€™s credibility with the American people.
 </t>
   </si>
   <si>
-    <t>simply</t>
-  </si>
-  <si>
-    <t xml:space="preserve">doc1 doc5 doc6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I saw that the problems people faced weren't simply local in nature - that the decision to close a steel mill was made by distant executives; that the lack of textbooks and computers in schools could be traced to the skewed priorities of politicians a thousand miles away; and that when a child turns to violence, there's a hole in his heart no government could ever fill.
+    <t xml:space="preserve">But I've been there long enough to know that the ways of Washington must change.
+On November 4th, we must stand up and say: "Eight is enough."
+For eighteen long months, you have stood up, one by one, and said enough to the politics of the past.
+She believed that over a span of three centuries, she had seen enough to know that there is no challenge too great, no injustice too crippling, no destiny too far out of reach for America.
+No longer can we assume that a high-school education is enough to compete for a job that could easily go to a college-educated student in Bangalore or Beijing.
+He was talking about what an awful job his own party has done governing this country, and he said that with all the mistakes and misjudgments the Republicans have made over the last six years, the slogan for the Democrats should come down to just two words:
+Had enough?
+Because I think we've all had enough.
+Four years after 9/11, I've had enough of being told that we can find the money to give Paris Hilton more tax cuts, but we can't find enough to protect our ports or our railroads or our chemical plants or our borders.
+Four years after 9/11, I've had enough of being told that we can find the money to give Paris Hilton more tax cuts, but we can't find enough to protect our ports or our railroads or our chemical plants or our borders.
+I've had enough of the closed-door deals that give billions to the HMOs when we're told that we can't do a thing for the 45 million uninsured or the millions more who can't pay their medical bills.
+I've had enough of being told that we can't afford body armor for our troops and health care for our veterans and benefits for the wounded heroes who've risked their lives for this country.
+I've had enough of that.
+I've had enough of giving billions away to the oil companies when we're told that we can't invest in the renewable energy that will create jobs and lower gas prices and finally free us from our dependence on the oil wells of Saudi Arabia.
+I've had enough of our kids going to schools where the rats outnumber the computers.
+I've had enough of Katrina survivors living out of their cars and begging FEMA for trailers.
+And I've had enough of being told that all we can do about this is sit and wait and hope that the good fortune of a few trickles on down to everyone else in this country.
+And in the end, we know that it isn't enough to just say that you've had enough.
+And in the end, we know that it isn't enough to just say that you've had enough.
+And I've wondered - if she is lucky enough to live as long as 105-year-old Marguerite Lewis, if she someday has the chance to look back across the twenty-first century, what will she see?
+But elections are not enough.
+We know that the temptation to take a bribe is greater when you're not making enough on the job.
+What is absolutely clear is that it is not enough for the President to respond to Iraqâ€™s reality by saying that he is â€œopen toâ€ or â€œinterested inâ€ new ideas while acting as if all thatâ€™s required is doing more of the same.
 It is not enough for him to simply lay out benchmarks for progress with no consequences attached for failing to meet them.
 And it is not enough for the President to tell us that victory in this war is simply a matter of American resolve.
-It may be politically advantageous for the President to simply define victory as staying and defeat as leaving, but it prevents a serious conversation about the realistic objectives we can still achieve in Iraq.
-It is simply not productive for us not to engage in discussions with Iran and Syria on an issue of such fundamental importance to all of us.
 The second lesson is that in any conflict, it is not enough to simply plan for war; you must also plan for success.
-Such lack of foresight is simply inexcusable.
+threats we havenâ€™t paid nearly enough attention to because we have been distracted in Iraq.
+Some weapons experts believe that terrorists are likely to find enough fissile material to build a bomb in the next ten years - and we can imagine with horror what the world will be like if they succeed.
 For a scientist or other employee to simply walk out of the lab with enough material to construct a weapon of mass destruction is far too easy, and the consequences would be far too devastating.
 </t>
   </si>
   <si>
-    <t>political</t>
+    <t xml:space="preserve">It was here, in Springfield, where North, South, East and West come together that I was reminded of the essential decency of the American people - where I came to believe that through this decency, we can build a more hopeful America.
+And that is why, in the shadow of the Old State Capitol, where Lincoln once called on a divided house to stand together, where common hopes and common dreams still, I stand before you today to announce my candidacy for President of the United States.
+It is because men and women of every race, from every walk of life, continued to march for freedom long after Lincoln was laid to rest, that today we have the chance to face the challenges of this millennium together, as one people - as Americans.
+Let us begin this hard work together.
+Politics doesn't have to divide us on this anymore - we can work together to keep our country safe.
+We can work together to track terrorists down with a stronger military, we can tighten the net around their finances, and we can improve our intelligence capabilities.
+It must be about us - it must be about what we can do together.
+It is that promise that has always set this country apart - that through hard work and sacrifice, each of us can pursue our individual dreams but still come together as one American family, to ensure that the next generation can pursue their dreams as well.
+The men and women who serve in our battlefields may be Democrats and Republicans and Independents, but they have fought together and bled together and some died together under the same proud flag.
+The men and women who serve in our battlefields may be Democrats and Republicans and Independents, but they have fought together and bled together and some died together under the same proud flag.
+The men and women who serve in our battlefields may be Democrats and Republicans and Independents, but they have fought together and bled together and some died together under the same proud flag.
+Instead, it is that American spirit - that American promise - that pushes us forward even when the path is uncertain; that binds us together in spite of our differences; that makes us fix our eye not on what is seen, but what is unseen, that better place around the bend.
+And it is that promise that forty five years ago today, brought Americans from every corner of this land to stand together on a Mall in Washington, before Lincoln's Memorial, and hear a young preacher from Georgia speak of his dream.
+That together, our dreams can be one.
+Thank you Roger Hickey and Bob Borosage for bringing us all together today and thank you for your leadership in the cause of a more progressive America.
+We know that there are some things we do better together.
+Among African nations, Kenya remains a model for representative democracy - a place where many different ethnic factions have found a way to live and work together in peace and stability.
+And then there are anonymous Kenyan whistleblowers who show us what is, so that we can all work together to demand what should be.
+And you will determine the direction of this country in the 21st century - whether the hard work of the many is lost to the selfish desires of a few, or whether you build an open, honest, stronger Kenya where everyone rises together.
+For only through this phased redeployment can we send a clear message to the Iraqi factions that the U.S. is not going to hold together this country indefinitely ?
+Additional steps should also be taken to consolidate and secure dangerous pathogen collections, strengthen bio-reconnaissance networks to provide early warning of bio-attack and natural disease outbreaks, and have our experts work together to develop improved medical countermeasures.
+And we need to work together to obtain a bilateral agreement on biological threat reduction.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's be the generation that says right here, right now, that we will have universal health care in America by the end of the next president's first term.
+Let's be the generation that says right here, right now, that we will have universal health care in America by the end of the next president's first term.
+Finally, there is one other thing that is not too late to get right about this war - and that is the homecoming of the men and women - our veterans - who have sacrificed the most.
+It will take your time, your energy, and your advice - to push us forward when we're doing right, and to let us know when we're not.
+Senator McCain likes to talk about judgment, but really, what does it say about your judgment when you think George Bush has been right more than ninety percent of the time?
+That's the change we need right now.
+Unlike John McCain, I will stop giving tax breaks to corporations that ship jobs overseas, and I will start giving them to companies that create good jobs right here in America.
+I'll help our auto companies re-tool, so that the fuel-efficient cars of the future are built right here in America.
+And I thought about how she saw women finally win the right to vote.
+It allows us to say to the child who didn't have the foresight to choose the right parents or be born in the right suburb - pick yourself up by your bootstraps.
+It allows us to say to the child who didn't have the foresight to choose the right parents or be born in the right suburb - pick yourself up by your bootstraps.
+I know that honoring their memory and making that freedom real may seem like an impossible task - an effort bigger than you can imagine - but sometimes all it takes to move us there is doing what little you can to right the wrongs you see.
+We must always reserve the right to strike unilaterally at terrorists wherever they may exist.
+According to a Pew survey, 42% of Americans now agree with the statement that the U.S. should "mind its own business internationally and let other countries get along the best they can on their own.â€
+We cannot afford to be a country of isolationists right now.
+This is a city of two and a half million, and in a non-descript building right in the middle of town stood this facility that once operated on the fringes of the Soviet biological weapons program.
+Our guide then brought us right up to what looked like a mini-refrigerator.
+Inside, staring right at us, were rows upon rows of test tubes.
+And the Kiev story is heading in the right direction - while we were in Ukraine, Dick, through his tireless and personal intervention, was able to achieve a breakthrough with that government, bringing that facility and others under the Cooperative Threat Reduction program.
+Much of what President Kennedy described in 1963 remains true to this day - and we owe it to ourselves and our children to get it right.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the face of a politics that's shut you out, that's told you to settle, that's divided us for too long, you believe we can be one people, reaching for what's possible, building that more perfect union.
+It was here we learned to disagree without being disagreeable - that it's possible to compromise so long as you know those principles that can never be compromised; and that so long as we're willing to listen to each other, we can assume the best in people instead of the worst.
+It was here we learned to disagree without being disagreeable - that it's possible to compromise so long as you know those principles that can never be compromised; and that so long as we're willing to listen to each other, we can assume the best in people instead of the worst.
+But I've been there long enough to know that the ways of Washington must change.
+It is because men and women of every race, from every walk of life, continued to march for freedom long after Lincoln was laid to rest, that today we have the chance to face the challenges of this millennium together, as one people - as Americans.
+But Washington has a long way to go.
+And I will restore our moral standing, so that America is once again that last, best hope for all who are called to the cause of freedom, who long for lives of peace, and who yearn for a better future.
+For eighteen long months, you have stood up, one by one, and said enough to the politics of the past.
+In the young people who voted for the first time, and in those who got involved again after a very long time.
+And in the midst of this rally, someone comes up to me and says that there's a woman who'd like to come meet you, and she's traveled a long way and she wants to take a picture and shake your hand.
+And I've wondered - if she is lucky enough to live as long as 105-year-old Marguerite Lewis, if she someday has the chance to look back across the twenty-first century, what will she see?
+I discovered the beauty of the land, a beauty that haunts you long after you've left.
+And now, after three long years of watching the same back and forth in Washington, the American people have sent a clear message that the days of using the war on terror as a political football are over.
+Iraq is descending into chaos based on ethnic divisions that were around long before American troops arrived.
+And I believe that it remains possible to salvage an acceptable outcome to this long and misguided war.
+I have long said that the only solution in Iraq is a political one.
+In the absence of a genuine commitment on the part of all of the factions in Iraq to deal with this issue, it is doubtful that a unified Iraqi government can function for long, and it is doubtful that U.S. forces, no matter how large, can prevent an escalation of widespread sectarian killing.
+But I have long believed it has also been a failure of conception ?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And I accepted the job, sight unseen, motivated then by a single, simple, powerful idea - that I might play a small part in building a better America.
+Let's recruit a new army of teachers, and give them better pay and more support in exchange for more accountability.
+We can control costs by focusing on prevention, by providing better treatment to the chronically ill, and using technology to cut the bureaucracy.
+I want to win that next battle - for better schools, and better jobs, and health care for all.
+I want us to take up the unfinished business of perfecting our union, and building a better America.
+America, we are better than these last eight years.
+We are a better country than this.
+Now is the time to help families with paid sick days and better family leave, because nobody in America should have to choose between keeping their jobs and caring for a sick child or ailing parent.
+But I will also go through the federal budget, line by line, eliminating programs that no longer work and making the ones we do need work better and cost less - because we cannot meet twenty-first century challenges with a twentieth century bureaucracy.
+And I will restore our moral standing, so that America is once again that last, best hope for all who are called to the cause of freedom, who long for lives of peace, and who yearn for a better future.
+I've seen it in Washington, when we worked across party lines to open up government and hold lobbyists more accountable, to give better care for our veterans and keep nuclear weapons out of terrorist hands.
+Instead, it is that American spirit - that American promise - that pushes us forward even when the path is uncertain; that binds us together in spite of our differences; that makes us fix our eye not on what is seen, but what is unseen, that better place around the bend.
+That we're better off if we dismantle it - if we divvy it up into individual tax breaks, hand 'em out, and encourage everyone to go buy your own health care, your own retirement security, your own child care, their own schools, your own private security force, your own roads, their own levees...
+We know that there are some things we do better together.
+We have the opportunity to muster the courage to fulfill the promise of our forefathers and lead our great nations towards a better future.
+Moreover, without a coherent strategy or better cooperation from the Iraqis, we would only be putting more of our soldiers in the crossfire of a civil war.
+An increase in the quality and quantity of U.S. personnel in training and advisory roles can guard against militia infiltration of Iraqi units; develop the trust and goodwill of Iraqi soldiers and the local populace; and lead to better intelligence while undercutting grassroots support for the insurgents.
+Now, few people understand these challenges better than the co-founder of the Cooperative Threat Reduction Program, Dick Lugar, and this is something that became particularly clear to me during one incident on the trip.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And that is why, in the shadow of the Old State Capitol, where Lincoln once called on a divided house to stand together, where common hopes and common dreams still, I stand before you today to announce my candidacy for President of the United States.
+I am grateful to finish this journey with one of the finest statesmen of our time, a man at ease with everyone from world leaders to the conductors on the Amtrak train he still takes home every night.
+It is that promise that has always set this country apart - that through hard work and sacrifice, each of us can pursue our individual dreams but still come together as one American family, to ensure that the next generation can pursue their dreams as well.
+In the face of that young student who sleeps just three hours before working the night shift, I think about my mom, who raised my sister and me on her own while she worked and earned her degree; who once turned to food stamps but was still able to send us to the best schools in the country with the help of student loans and scholarships.
+These are Americans who still believe in an America where anything's possible - they just don't think their leaders do.
+These are Americans who still dream big dreams -they just sense their leaders have forgotten how.
+That she was born under the cloud of Jim Crow, free in theory but still enslaved in so many ways.
+I've thought about how she lived to see a world war and a Great Depression and a second world war, and how she saw her brothers and uncles and nephews and cousins coming home from those wars and still have to sit at the back of a bus.
+But while the world has changed around us, too often our government has stood still.
+This means that the education and health care systems - issues that my own nation more than 200 years old still struggles with - lag behind, impacting its development.
+I know that while recent reports have pointed to strong economic growth in this country, 56% of Kenyans still live in poverty.
+As I said at the outset, I did not know my father well - he returned to Kenya from America when I was still young.
+It may be politically advantageous for the President to simply define victory as staying and defeat as leaving, but it prevents a serious conversation about the realistic objectives we can still achieve in Iraq.
+We should also make it clear that, even after we begin to drawdown forces, we will still work with our allies in the region to combat international terrorism and prevent the spread of weapons of mass destruction.
+Yet, a serious threat still remains.
+But because of the size, secrecy, and scope of the Soviet biological weapons program, we are still dangerously behind in dealing with this proliferation threat.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doc1 doc2 doc4 doc5 doc6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All of us know what those challenges are today - a war with no end, a dependence on oil that threatens our future, schools where too many children aren't learning, and families struggling paycheck to paycheck despite working as hard as they can.
+We'll have to make hard choices.
+Let us begin this hard work together.
+It is that promise that has always set this country apart - that through hard work and sacrifice, each of us can pursue our individual dreams but still come together as one American family, to ensure that the next generation can pursue their dreams as well.
+This country is more decent than one where a woman in Ohio, on the brink of retirement, finds herself one illness away from disaster after a lifetime of hard work.
+Tell that to the proud auto workers at a Michigan plant who, after they found out it was closing, kept showing up every day and working as hard as ever, because they knew there were people who counted on the brakes that they made.
+They work hard and give back and keep going without complaint.
+She's the one who taught me about hard work.
+I believe that as hard as it will be, the change we need is coming.
+Certainly it is not due to lack of effort on the part of ordinary Kenyans - we know how hard Kenyans are willing to work, the tremendous sacrifices that Kenyan mothers make for their children, the Herculean efforts that Kenyan fathers make for their families.
+The hard truth is that nations, by and large, will act in their self-interest and if Kenya does not act, it will fall behind.
+And yet, the reason I speak of the freedom that you fought so hard to win is because today that freedom is in jeopardy.
+When people are judged by merit, not connections, then the best and brightest can lead the country, people will work hard, and the entire economy will grow - everyone will benefit and more resources will be available for all, not just select groups.
+And you will determine the direction of this country in the 21st century - whether the hard work of the many is lost to the selfish desires of a few, or whether you build an open, honest, stronger Kenya where everyone rises together.
+making the hard choices and sacrifices necessary to uphold our most deeply held values and ideals.
+While they are often difficult to use, they are easy to transport, hard to detect, and, as we saw in Kiev, not always well secured.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We can work together to track terrorists down with a stronger military, we can tighten the net around their finances, and we can improve our intelligence capabilities.
+Let us honor their valor by providing the care they need and rebuilding the military they love.
+Tell that to the military families who shoulder their burdens silently as they watch their loved ones leave for their third or fourth or fifth tour of duty.
+I will rebuild our military to meet future conflicts.
+We have the most powerful military on Earth, but that's not what makes us strong.
+Let it be said that we will conduct a smart foreign policy that battles the forces of terrorism and fundamentalism wherever they may exist by matching the might of our military with the power of our diplomacy and the strength of our alliances.
+diplomatic, economic, and military ?
+But even as they have carried out their responsibilities with excellence and valor, they have also told me that there is no military solution to this war.
+military, financial, diplomatic ?
+He should then work with our military commanders to map out the best plan for such a redeployment and determine precise levels and dates.
+We would make clear in such a scenario that the United States would not be maintaining permanent military bases in Iraq, but would do what was necessary to help prevent a total collapse of the Iraqi state and further polarization of Iraqi society.
+Of course, in order to convince the various factions to embark on the admittedly difficult task of disarming their militias, the Iraqi government must also make headway on reforming the institutions that support the military and the police.
+The first is that we should be more modest in our belief that we can impose democracy on a country through military force.
+Much has been written about how the military invasion of Iraq was planned without any thought to what political situation we would find after Baghdad fell.
+But we should know that our success in doing so is enhanced by engaging our allies so that we receive the crucial diplomatic, military, intelligence, and financial support that can lighten our load and add legitimacy to our actions.
+The overwhelming presence of our troops, our intelligence, and our resources in Iraq has stretched our military to the breaking point and distracted us from the growing threats of a dangerous world.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doc2 doc4 doc5 doc6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">But the record's clear: John McCain has voted with George Bush ninety percent of the time.
+And for the sake of our economy, our security, and the future of our planet, I will set a clear goal as President: in ten years, we will finally end our dependence on oil from the Middle East.
+When John McCain said we could just "muddle through" in Afghanistan, I argued for more resources and more troops to finish the fight against the terrorists who actually attacked us on 9/11, and made clear that we must take out Osama bin Laden and his lieutenants if we have them in our sights.
+As Commander-in-Chief, I will never hesitate to defend this nation, but I will only send our troops into harm's way with a clear mission and a sacred commitment to give them the equipment they need in battle and the care and benefits they deserve when they come home.
+And the way to create good jobs is when the rules of a society are transparent - when there's a clear and advertised set of laws and regulations regarding how to start a business, what it takes to own property, how to go about getting a loan - there is less of a chance that some corrupt bureaucrat will make up his own rules that suit only his interests.
+In each case, what has been required to meet the challenges we face has been good judgment and clear vision from our leaders, and a fundamental seriousness and engagement on the part of the American people ?
+And now, after three long years of watching the same back and forth in Washington, the American people have sent a clear message that the days of using the war on terror as a political football are over.
+What is absolutely clear is that it is not enough for the President to respond to Iraqâ€™s reality by saying that he is â€œopen toâ€ or â€œinterested inâ€ new ideas while acting as if all thatâ€™s required is doing more of the same.
+Itâ€™s not clear that these troop levels are sustainable for a significant period of time, and according to our commanders on the ground, adding American forces will only relieve the Iraqis from doing more on their own.
+For only through this phased redeployment can we send a clear message to the Iraqi factions that the U.S. is not going to hold together this country indefinitely ?
+The redeployment could be temporarily suspended if the parties in Iraq reach an effective political arrangement that stabilizes the situation and they offer us a clear and compelling rationale for maintaining certain troop levels.
+We would make clear in such a scenario that the United States would not be maintaining permanent military bases in Iraq, but would do what was necessary to help prevent a total collapse of the Iraqi state and further polarization of Iraqi society.
+Such a reduced but active presence will also send a clear message to hostile countries like Iran and Syria that we intend to remain a key player in this region.
+We should also make it clear that, even after we begin to drawdown forces, we will still work with our allies in the region to combat international terrorism and prevent the spread of weapons of mass destruction.
+But even as we provide such help, we should be clear that the institutions of democracy ?
+Now, few people understand these challenges better than the co-founder of the Cooperative Threat Reduction Program, Dick Lugar, and this is something that became particularly clear to me during one incident on the trip.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was in these neighborhoods that I received the best education I ever had, and where I learned the true meaning of my Christian faith.
+It was here we learned to disagree without being disagreeable - that it's possible to compromise so long as you know those principles that can never be compromised; and that so long as we're willing to listen to each other, we can assume the best in people instead of the worst.
+Letting the Iraqis know that we will not be there forever is our last, best hope to pressure the Sunni and Shia to come to the table and find peace.
+In the face of that young student who sleeps just three hours before working the night shift, I think about my mom, who raised my sister and me on her own while she worked and earned her degree; who once turned to food stamps but was still able to send us to the best schools in the country with the help of student loans and scholarships.
+And I will restore our moral standing, so that America is once again that last, best hope for all who are called to the cause of freedom, who long for lives of peace, and who yearn for a better future.
+If your hopes have been dashed again and again, then it's best to stop hoping, and settle for what you already know.
+Kenya, like many African nations did not come of age under the best historical circumstances.
+Of course, the best way to reduce bureaucracy and increase pay is to create more private sector jobs.
+When people are judged by merit, not connections, then the best and brightest can lead the country, people will work hard, and the entire economy will grow - everyone will benefit and more resources will be available for all, not just select groups.
+They are the soul-trying times our forbearers spoke of, when the ease of complacency and self-interest must give way to the more difficult task of rendering judgment on what is best for the nation and for posterity, and then acting on that judgment ?
+Rather, the question is what strategies, imperfect though they may be, are most likely to achieve the best outcome in Iraq, one that will ultimately put us on a more effective course to deal with international terrorism, nuclear proliferation, and other critical threats to our security.
+Our best hope for success is to use the tools we have ?
+He should then work with our military commanders to map out the best plan for such a redeployment and determine precise levels and dates.
+According to a Pew survey, 42% of Americans now agree with the statement that the U.S. should "mind its own business internationally and let other countries get along the best they can on their own.â€
+We cannot afford to be a country of isolationists right now.
+But when we think about the threat that these weapons pose to our global security, we cannot allow the U.S.-Russian relationship to deteriorate to the point where Russia does not think it's in their best interest to help us finish the job we started.
+</t>
   </si>
   <si>
     <t xml:space="preserve">doc1 doc2 doc4 doc5 </t>
@@ -667,1320 +1972,25 @@
 </t>
   </si>
   <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t xml:space="preserve">doc2 doc5 doc6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The times are too serious, the stakes are too high for this same partisan playbook.
-These are serious times for our country, and with their votes two weeks ago, Americans demanded a feasible strategy with defined goals in Iraq ?
-It may be politically advantageous for the President to simply define victory as staying and defeat as leaving, but it prevents a serious conversation about the realistic objectives we can still achieve in Iraq.
-But only if U.S. commanders think such a force would be effective; if there is substantial movement towards a political solution among Iraqi factions; if the Iraqi government showed a serious commitment to disbanding the militias; and if the Iraqi government asked us ?
-Americans called for this more serious policy a few Tuesdays ago.
-As some of you know, Senator Lugar and I recently traveled to Russia, Ukraine, and Azerbaijan to witness firsthand both the progress we're making in securing the world's most dangerous weapons, as well as the serious challenges that lie ahead.
-Yet, a serious threat still remains.
-Additionally, in the last few years, we've seen some disturbing trends from Russia itself - the deterioration of democracy and the rule of law, the abuses that have taken place in Chechnya, Russian meddling in the former Soviet Union - that raise serious questions about our relationship.
+    <t xml:space="preserve">doc1 doc2 doc5 doc6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's be the generation that says right here, right now, that we will have universal health care in America by the end of the next president's first term.
+I want to win that next battle - for justice and opportunity.
+I want to win that next battle - for better schools, and better jobs, and health care for all.
+To President Clinton, who last night made the case for change as only he can make it; to Ted Kennedy, who embodies the spirit of service; and to the next Vice President of the United States, Joe Biden, I thank you.
+To the love of my life, our next First Lady, Michelle Obama, and to Sasha and Malia - I love you so much, and I'm so proud of all of you.
+It is that promise that has always set this country apart - that through hard work and sacrifice, each of us can pursue our individual dreams but still come together as one American family, to ensure that the next generation can pursue their dreams as well.
+Because next week, in Minnesota, the same party that brought you two terms of George Bush and Dick Cheney will ask this country for a third.
+And we are here because we love this country too much to let the next four years look like the last eight.
+And next week, we'll also hear about those occasions when he's broken with his party as evidence that he can deliver the change that we need.
+And I'll invest 150 billion dollars over the next decade in affordable, renewable sources of energy - wind power and solar power and the next generation of biofuels; an investment that will lead to new industries and five million new jobs that pay well and can't ever be outsourced.
+And just as we keep our keep our promise to the next generation here at home, so must we keep America's promise abroad.
+If John McCain wants to have a debate about who has the temperament, and judgment, to serve as the next Commander-in-Chief, that's a debate I'm ready to have.
+Now, I am hopeful that the Iraq Study Group emerges next month with a series of proposals around which we can begin to build a bipartisan consensus.
+This must end in the next session of Congress, when we reassert our authority to oversee the management of this war.
+Some weapons experts believe that terrorists are likely to find enough fissile material to build a bomb in the next ten years - and we can imagine with horror what the world will be like if they succeed.
 </t>
-  </si>
-  <si>
-    <t>Word</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Files</t>
-  </si>
-  <si>
-    <t>Sentences</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>willing</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>nuclear</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>future</t>
-  </si>
-  <si>
-    <t>clear</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>common</t>
-  </si>
-  <si>
-    <t>higher</t>
-  </si>
-  <si>
-    <t>greater</t>
-  </si>
-  <si>
-    <t>honest</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>certain</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>economic</t>
-  </si>
-  <si>
-    <t>fundamental</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>young</t>
-  </si>
-  <si>
-    <t>tough</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>especially</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>different</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>freedom</t>
-  </si>
-  <si>
-    <t>firmly</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>foreign</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>forward</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>entire</t>
-  </si>
-  <si>
-    <t>fuel-efficient</t>
-  </si>
-  <si>
-    <t>effective</t>
-  </si>
-  <si>
-    <t>African</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>regional</t>
-  </si>
-  <si>
-    <t>yet</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>sometimes</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>similar</t>
-  </si>
-  <si>
-    <t>significant</t>
-  </si>
-  <si>
-    <t>self-interest</t>
-  </si>
-  <si>
-    <t>responsible</t>
-  </si>
-  <si>
-    <t>regard</t>
-  </si>
-  <si>
-    <t>larger</t>
-  </si>
-  <si>
-    <t>public</t>
-  </si>
-  <si>
-    <t>petty</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>past</t>
-  </si>
-  <si>
-    <t>often</t>
-  </si>
-  <si>
-    <t>necessary</t>
-  </si>
-  <si>
-    <t>military</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>likely</t>
-  </si>
-  <si>
-    <t>legacy</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>individual</t>
-  </si>
-  <si>
-    <t>anymore</t>
-  </si>
-  <si>
-    <t>Fortunately</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>civil</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>ago</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>almost</t>
-  </si>
-  <si>
-    <t>ahead</t>
-  </si>
-  <si>
-    <t>already</t>
-  </si>
-  <si>
-    <t>affordable</t>
-  </si>
-  <si>
-    <t>destiny</t>
-  </si>
-  <si>
-    <t>rubble</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>rich</t>
-  </si>
-  <si>
-    <t>respectful</t>
-  </si>
-  <si>
-    <t>act</t>
-  </si>
-  <si>
-    <t>repressive</t>
-  </si>
-  <si>
-    <t>renewable</t>
-  </si>
-  <si>
-    <t>robust</t>
-  </si>
-  <si>
-    <t>second</t>
-  </si>
-  <si>
-    <t>accountable</t>
-  </si>
-  <si>
-    <t>saw</t>
-  </si>
-  <si>
-    <t>regardless</t>
-  </si>
-  <si>
-    <t>select</t>
-  </si>
-  <si>
-    <t>accessible</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>sensational</t>
-  </si>
-  <si>
-    <t>accept</t>
-  </si>
-  <si>
-    <t>settle</t>
-  </si>
-  <si>
-    <t>able</t>
-  </si>
-  <si>
-    <t>significantly</t>
-  </si>
-  <si>
-    <t>Well</t>
-  </si>
-  <si>
-    <t>Such</t>
-  </si>
-  <si>
-    <t>adjust</t>
-  </si>
-  <si>
-    <t>realistic</t>
-  </si>
-  <si>
-    <t>advantageous</t>
-  </si>
-  <si>
-    <t>recently</t>
-  </si>
-  <si>
-    <t>anonymous</t>
-  </si>
-  <si>
-    <t>ordinary</t>
-  </si>
-  <si>
-    <t>outside</t>
-  </si>
-  <si>
-    <t>particularly</t>
-  </si>
-  <si>
-    <t>alternative</t>
-  </si>
-  <si>
-    <t>politically</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>powerfully</t>
-  </si>
-  <si>
-    <t>presumptuousness</t>
-  </si>
-  <si>
-    <t>private</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>productive</t>
-  </si>
-  <si>
-    <t>profound</t>
-  </si>
-  <si>
-    <t>progress</t>
-  </si>
-  <si>
-    <t>prosperous</t>
-  </si>
-  <si>
-    <t>proud</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>rationale</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>slough</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>recent</t>
-  </si>
-  <si>
-    <t>Rather</t>
-  </si>
-  <si>
-    <t>early</t>
-  </si>
-  <si>
-    <t>Nunn-Lugar</t>
-  </si>
-  <si>
-    <t>unwanted</t>
-  </si>
-  <si>
-    <t>tremendous</t>
-  </si>
-  <si>
-    <t>tribal</t>
-  </si>
-  <si>
-    <t>trivial</t>
-  </si>
-  <si>
-    <t>Individual</t>
-  </si>
-  <si>
-    <t>turn</t>
-  </si>
-  <si>
-    <t>twentieth</t>
-  </si>
-  <si>
-    <t>twenty-first</t>
-  </si>
-  <si>
-    <t>ultimately</t>
-  </si>
-  <si>
-    <t>unfulfilled</t>
-  </si>
-  <si>
-    <t>unite</t>
-  </si>
-  <si>
-    <t>universal</t>
-  </si>
-  <si>
-    <t>unseen</t>
-  </si>
-  <si>
-    <t>uphold</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>urgent</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>victory</t>
-  </si>
-  <si>
-    <t>warmth</t>
-  </si>
-  <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>wide</t>
-  </si>
-  <si>
-    <t>worn-out</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Certainly</t>
-  </si>
-  <si>
-    <t>British</t>
-  </si>
-  <si>
-    <t>Instead</t>
-  </si>
-  <si>
-    <t>tolerant</t>
-  </si>
-  <si>
-    <t>told</t>
-  </si>
-  <si>
-    <t>Kenyan</t>
-  </si>
-  <si>
-    <t>Now</t>
-  </si>
-  <si>
-    <t>soul-trying</t>
-  </si>
-  <si>
-    <t>speak</t>
-  </si>
-  <si>
-    <t>Never</t>
-  </si>
-  <si>
-    <t>spite</t>
-  </si>
-  <si>
-    <t>spur</t>
-  </si>
-  <si>
-    <t>statistic</t>
-  </si>
-  <si>
-    <t>steadfast</t>
-  </si>
-  <si>
-    <t>Much</t>
-  </si>
-  <si>
-    <t>strategically</t>
-  </si>
-  <si>
-    <t>Most</t>
-  </si>
-  <si>
-    <t>stronger</t>
-  </si>
-  <si>
-    <t>strongest</t>
-  </si>
-  <si>
-    <t>struggles</t>
-  </si>
-  <si>
-    <t>subordinate</t>
-  </si>
-  <si>
-    <t>More</t>
-  </si>
-  <si>
-    <t>surely</t>
-  </si>
-  <si>
-    <t>talent</t>
-  </si>
-  <si>
-    <t>temporarily</t>
-  </si>
-  <si>
-    <t>temptation</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>therefore</t>
-  </si>
-  <si>
-    <t>third</t>
-  </si>
-  <si>
-    <t>thoughtful</t>
-  </si>
-  <si>
-    <t>timidity</t>
-  </si>
-  <si>
-    <t>solar</t>
-  </si>
-  <si>
-    <t>army</t>
-  </si>
-  <si>
-    <t>obvious</t>
-  </si>
-  <si>
-    <t>finished</t>
-  </si>
-  <si>
-    <t>focus</t>
-  </si>
-  <si>
-    <t>deeply</t>
-  </si>
-  <si>
-    <t>decent</t>
-  </si>
-  <si>
-    <t>fought</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>cynicism</t>
-  </si>
-  <si>
-    <t>crowd</t>
-  </si>
-  <si>
-    <t>fugitive</t>
-  </si>
-  <si>
-    <t>critically</t>
-  </si>
-  <si>
-    <t>funnel</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>gifts</t>
-  </si>
-  <si>
-    <t>crippling</t>
-  </si>
-  <si>
-    <t>creatively</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>greatest</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>convene</t>
-  </si>
-  <si>
-    <t>harm</t>
-  </si>
-  <si>
-    <t>hear</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>consistent</t>
-  </si>
-  <si>
-    <t>historic</t>
-  </si>
-  <si>
-    <t>historical</t>
-  </si>
-  <si>
-    <t>homegrown</t>
-  </si>
-  <si>
-    <t>desperately</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>ease</t>
-  </si>
-  <si>
-    <t>determine</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>easiest</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>divvy</t>
-  </si>
-  <si>
-    <t>dismiss</t>
-  </si>
-  <si>
-    <t>else</t>
-  </si>
-  <si>
-    <t>dismantle</t>
-  </si>
-  <si>
-    <t>disillusionment</t>
-  </si>
-  <si>
-    <t>disagreeable</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>disagree</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>everywhere</t>
-  </si>
-  <si>
-    <t>extended</t>
-  </si>
-  <si>
-    <t>extraordinarily</t>
-  </si>
-  <si>
-    <t>failure</t>
-  </si>
-  <si>
-    <t>fair</t>
-  </si>
-  <si>
-    <t>direct</t>
-  </si>
-  <si>
-    <t>farthest</t>
-  </si>
-  <si>
-    <t>father</t>
-  </si>
-  <si>
-    <t>fed</t>
-  </si>
-  <si>
-    <t>federal</t>
-  </si>
-  <si>
-    <t>fellow</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>final</t>
-  </si>
-  <si>
-    <t>concrete</t>
-  </si>
-  <si>
-    <t>hopeful</t>
-  </si>
-  <si>
-    <t>hostile</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>lift</t>
-  </si>
-  <si>
-    <t>broader</t>
-  </si>
-  <si>
-    <t>brightest</t>
-  </si>
-  <si>
-    <t>lobbyist</t>
-  </si>
-  <si>
-    <t>biological</t>
-  </si>
-  <si>
-    <t>longer</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>magical</t>
-  </si>
-  <si>
-    <t>biggest</t>
-  </si>
-  <si>
-    <t>matter</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>bigger</t>
-  </si>
-  <si>
-    <t>modest</t>
-  </si>
-  <si>
-    <t>mutual</t>
-  </si>
-  <si>
-    <t>benefit</t>
-  </si>
-  <si>
-    <t>believe</t>
-  </si>
-  <si>
-    <t>basic</t>
-  </si>
-  <si>
-    <t>bankrupt</t>
-  </si>
-  <si>
-    <t>away</t>
-  </si>
-  <si>
-    <t>next-generation</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>nomination</t>
-  </si>
-  <si>
-    <t>non-proliferation</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>notion</t>
-  </si>
-  <si>
-    <t>lifetime</t>
-  </si>
-  <si>
-    <t>lie</t>
-  </si>
-  <si>
-    <t>build</t>
-  </si>
-  <si>
-    <t>collective</t>
-  </si>
-  <si>
-    <t>human</t>
-  </si>
-  <si>
-    <t>imagine</t>
-  </si>
-  <si>
-    <t>imperfect</t>
-  </si>
-  <si>
-    <t>conceivable</t>
-  </si>
-  <si>
-    <t>impose</t>
-  </si>
-  <si>
-    <t>impossible</t>
-  </si>
-  <si>
-    <t>impressive</t>
-  </si>
-  <si>
-    <t>improbable</t>
-  </si>
-  <si>
-    <t>increasingly</t>
-  </si>
-  <si>
-    <t>independent</t>
-  </si>
-  <si>
-    <t>indigenous</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>intelligent</t>
-  </si>
-  <si>
-    <t>interested</t>
-  </si>
-  <si>
-    <t>international</t>
-  </si>
-  <si>
-    <t>invest</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>large</t>
-  </si>
-  <si>
-    <t>chronic</t>
-  </si>
-  <si>
-    <t>chemical</t>
-  </si>
-  <si>
-    <t>lead</t>
-  </si>
-  <si>
-    <t>â€œ</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>Not</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>partisan</t>
-  </si>
-  <si>
-    <t>flag-draped</t>
-  </si>
-  <si>
-    <t>equal</t>
-  </si>
-  <si>
-    <t>â€™</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>tired</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>acceptable</t>
-  </si>
-  <si>
-    <t>Enough</t>
-  </si>
-  <si>
-    <t>nearly</t>
-  </si>
-  <si>
-    <t>publicly</t>
-  </si>
-  <si>
-    <t>magic</t>
-  </si>
-  <si>
-    <t>no-bid</t>
-  </si>
-  <si>
-    <t>low-enriched</t>
-  </si>
-  <si>
-    <t>medical</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>policy-by-slogan</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>overseas</t>
-  </si>
-  <si>
-    <t>overly-rigid</t>
-  </si>
-  <si>
-    <t>original</t>
-  </si>
-  <si>
-    <t>oppose</t>
-  </si>
-  <si>
-    <t>opponent</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>oldest</t>
-  </si>
-  <si>
-    <t>official</t>
-  </si>
-  <si>
-    <t>won't-do</t>
-  </si>
-  <si>
-    <t>tempting</t>
-  </si>
-  <si>
-    <t>terrorist</t>
-  </si>
-  <si>
-    <t>timetable</t>
-  </si>
-  <si>
-    <t>tonight</t>
-  </si>
-  <si>
-    <t>tragic</t>
-  </si>
-  <si>
-    <t>truly</t>
-  </si>
-  <si>
-    <t>twenty</t>
-  </si>
-  <si>
-    <t>typical</t>
-  </si>
-  <si>
-    <t>understand</t>
-  </si>
-  <si>
-    <t>uninsured</t>
-  </si>
-  <si>
-    <t>unnecessary</t>
-  </si>
-  <si>
-    <t>unprecedented</t>
-  </si>
-  <si>
-    <t>vast</t>
-  </si>
-  <si>
-    <t>vital</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>weak</t>
-  </si>
-  <si>
-    <t>ten</t>
-  </si>
-  <si>
-    <t>succumb</t>
-  </si>
-  <si>
-    <t>substantial</t>
-  </si>
-  <si>
-    <t>won't-even-try</t>
-  </si>
-  <si>
-    <t>safeguard</t>
-  </si>
-  <si>
-    <t>wherever</t>
-  </si>
-  <si>
-    <t>sensible</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>sew</t>
-  </si>
-  <si>
-    <t>skewed</t>
-  </si>
-  <si>
-    <t>slowly</t>
-  </si>
-  <si>
-    <t>smart</t>
-  </si>
-  <si>
-    <t>sooner</t>
-  </si>
-  <si>
-    <t>specific</t>
-  </si>
-  <si>
-    <t>spent</t>
-  </si>
-  <si>
-    <t>stagnant</t>
-  </si>
-  <si>
-    <t>stale</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>scare</t>
-  </si>
-  <si>
-    <t>load</t>
-  </si>
-  <si>
-    <t>crucial</t>
-  </si>
-  <si>
-    <t>chronically</t>
-  </si>
-  <si>
-    <t>civic</t>
-  </si>
-  <si>
-    <t>civilian</t>
-  </si>
-  <si>
-    <t>closed-door</t>
-  </si>
-  <si>
-    <t>committed</t>
-  </si>
-  <si>
-    <t>conventional</t>
-  </si>
-  <si>
-    <t>corporate</t>
-  </si>
-  <si>
-    <t>deepest</t>
-  </si>
-  <si>
-    <t>desperate</t>
-  </si>
-  <si>
-    <t>diplomatic</t>
-  </si>
-  <si>
-    <t>disastrous</t>
-  </si>
-  <si>
-    <t>distant</t>
-  </si>
-  <si>
-    <t>divided</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>bloated</t>
-  </si>
-  <si>
-    <t>administrative</t>
-  </si>
-  <si>
-    <t>Many</t>
-  </si>
-  <si>
-    <t>Moreover</t>
-  </si>
-  <si>
-    <t>Yet</t>
-  </si>
-  <si>
-    <t>absolutely</t>
-  </si>
-  <si>
-    <t>add</t>
-  </si>
-  <si>
-    <t>al</t>
-  </si>
-  <si>
-    <t>alone</t>
-  </si>
-  <si>
-    <t>argument</t>
-  </si>
-  <si>
-    <t>armor</t>
-  </si>
-  <si>
-    <t>ask</t>
-  </si>
-  <si>
-    <t>effectively</t>
-  </si>
-  <si>
-    <t>hole</t>
-  </si>
-  <si>
-    <t>ideological</t>
-  </si>
-  <si>
-    <t>ignore</t>
-  </si>
-  <si>
-    <t>ill</t>
-  </si>
-  <si>
-    <t>ill-conceived</t>
-  </si>
-  <si>
-    <t>Democratic</t>
-  </si>
-  <si>
-    <t>inexcusable</t>
-  </si>
-  <si>
-    <t>eighty</t>
-  </si>
-  <si>
-    <t>involved</t>
-  </si>
-  <si>
-    <t>judgment</t>
-  </si>
-  <si>
-    <t>lately</t>
-  </si>
-  <si>
-    <t>later</t>
-  </si>
-  <si>
-    <t>let</t>
-  </si>
-  <si>
-    <t>likeliest</t>
-  </si>
-  <si>
-    <t>heavy</t>
-  </si>
-  <si>
-    <t>heartbroken</t>
-  </si>
-  <si>
-    <t>harder</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>engaging</t>
-  </si>
-  <si>
-    <t>eve</t>
-  </si>
-  <si>
-    <t>exacerbated</t>
-  </si>
-  <si>
-    <t>faster</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>financial</t>
-  </si>
-  <si>
-    <t>fissile</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>give</t>
   </si>
 </sst>
 </file>
@@ -2658,6 +2668,53 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2674,23 +2731,35 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
+        <right style="thin">
           <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2745,65 +2814,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -4523,23 +4533,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:D21" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:D21" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="2" tableBorderDxfId="3" totalsRowBorderDxfId="1">
   <autoFilter ref="A1:D21" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D21">
     <sortCondition descending="1" ref="B1:B21"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Word" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Count" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Files" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Sentences" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Word" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Count" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Files" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Sentences" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="A1:B34" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="A1:B34" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:B34" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="word"/>
@@ -4860,7 +4870,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4874,16 +4884,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -4902,21 +4912,21 @@
     </row>
     <row r="3" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>13</v>
+        <v>467</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3">
         <v>34</v>
@@ -4925,12 +4935,12 @@
         <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3">
         <v>33</v>
@@ -4939,21 +4949,21 @@
         <v>6</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3">
         <v>32</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -4961,32 +4971,32 @@
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>7</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B8" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>32</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B9" s="3">
         <v>20</v>
@@ -4995,175 +5005,175 @@
         <v>6</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3">
         <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3">
         <v>20</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>34</v>
+        <v>470</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>39</v>
+        <v>471</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B14" s="3">
         <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>30</v>
+        <v>472</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="B15" s="3">
         <v>16</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>21</v>
+        <v>473</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>46</v>
+        <v>474</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>47</v>
+        <v>475</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="B17" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>6</v>
+        <v>466</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>26</v>
+        <v>476</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B18" s="3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>36</v>
+        <v>477</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="405" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="B19" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>23</v>
+        <v>474</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B20" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>43</v>
+        <v>480</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>44</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B21" s="10">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>49</v>
+        <v>482</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>50</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -5195,7 +5205,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>14</v>
@@ -5211,7 +5221,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>11</v>
@@ -5219,7 +5229,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -5227,7 +5237,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -5235,7 +5245,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -5243,7 +5253,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -5251,7 +5261,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -5259,7 +5269,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>7</v>
@@ -5267,7 +5277,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -5275,7 +5285,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -5283,7 +5293,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -5291,7 +5301,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -5299,7 +5309,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -5307,7 +5317,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -5323,7 +5333,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -5331,7 +5341,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -5339,7 +5349,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -5347,7 +5357,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -5355,7 +5365,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -5363,7 +5373,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -5371,7 +5381,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -5379,7 +5389,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -5387,7 +5397,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -5395,7 +5405,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -5403,7 +5413,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -5411,7 +5421,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -5419,7 +5429,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -5427,7 +5437,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -5435,7 +5445,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -5443,7 +5453,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -5451,7 +5461,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -5459,7 +5469,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -5467,7 +5477,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -5475,7 +5485,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -5483,7 +5493,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -5491,7 +5501,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -5499,7 +5509,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -5507,7 +5517,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -5515,7 +5525,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -5523,7 +5533,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -5531,7 +5541,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -5539,7 +5549,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -5547,7 +5557,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -5555,7 +5565,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -5563,7 +5573,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -5571,7 +5581,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -5579,7 +5589,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -5587,7 +5597,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -5595,7 +5605,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -5603,7 +5613,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -5611,7 +5621,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B54">
         <v>3</v>
@@ -5619,7 +5629,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -5627,7 +5637,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -5635,7 +5645,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -5643,7 +5653,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -5651,7 +5661,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -5659,7 +5669,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -5667,7 +5677,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -5683,7 +5693,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -5691,7 +5701,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B64">
         <v>2</v>
@@ -5699,7 +5709,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B65">
         <v>2</v>
@@ -5707,7 +5717,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B66">
         <v>2</v>
@@ -5715,7 +5725,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -5723,7 +5733,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="B68">
         <v>2</v>
@@ -5731,7 +5741,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B69">
         <v>2</v>
@@ -5739,7 +5749,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="B70">
         <v>2</v>
@@ -5747,7 +5757,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B71">
         <v>2</v>
@@ -5755,7 +5765,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="B72">
         <v>2</v>
@@ -5763,7 +5773,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B73">
         <v>2</v>
@@ -5771,7 +5781,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="B74">
         <v>2</v>
@@ -5779,7 +5789,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B75">
         <v>2</v>
@@ -5787,7 +5797,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B76">
         <v>2</v>
@@ -5795,7 +5805,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B77">
         <v>2</v>
@@ -5803,7 +5813,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B78">
         <v>2</v>
@@ -5811,7 +5821,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="B79">
         <v>2</v>
@@ -5819,7 +5829,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -5827,7 +5837,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -5835,7 +5845,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B82">
         <v>2</v>
@@ -5843,7 +5853,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B83">
         <v>2</v>
@@ -5851,7 +5861,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B84">
         <v>2</v>
@@ -5859,7 +5869,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -5867,7 +5877,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="B86">
         <v>2</v>
@@ -5875,7 +5885,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -5883,7 +5893,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="B88">
         <v>2</v>
@@ -5891,7 +5901,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -5899,7 +5909,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -5907,7 +5917,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -5915,7 +5925,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -5923,7 +5933,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -5931,7 +5941,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -5939,7 +5949,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="B95">
         <v>2</v>
@@ -5947,7 +5957,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="B96">
         <v>2</v>
@@ -5955,7 +5965,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B97">
         <v>2</v>
@@ -5963,7 +5973,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B98">
         <v>2</v>
@@ -5971,7 +5981,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="B99">
         <v>2</v>
@@ -5979,7 +5989,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B100">
         <v>2</v>
@@ -5987,7 +5997,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -5995,7 +6005,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -6003,7 +6013,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B103">
         <v>2</v>
@@ -6011,7 +6021,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -6019,7 +6029,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -6027,7 +6037,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -6035,7 +6045,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -6043,7 +6053,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -6051,7 +6061,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -6059,7 +6069,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -6067,7 +6077,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -6075,7 +6085,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -6083,7 +6093,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -6091,7 +6101,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -6099,7 +6109,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -6107,7 +6117,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -6115,7 +6125,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -6123,7 +6133,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -6131,7 +6141,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -6139,7 +6149,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -6147,7 +6157,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -6155,7 +6165,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -6163,7 +6173,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -6171,7 +6181,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -6179,7 +6189,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -6187,7 +6197,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -6195,7 +6205,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -6203,7 +6213,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -6211,7 +6221,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -6219,7 +6229,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -6227,7 +6237,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -6235,7 +6245,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -6243,7 +6253,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -6251,7 +6261,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -6259,7 +6269,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -6267,7 +6277,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -6275,7 +6285,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -6283,7 +6293,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -6291,7 +6301,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -6299,7 +6309,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -6307,7 +6317,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -6315,7 +6325,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -6323,7 +6333,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -6331,7 +6341,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -6339,7 +6349,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -6347,7 +6357,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -6355,7 +6365,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -6363,7 +6373,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -6371,7 +6381,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -6379,7 +6389,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -6387,7 +6397,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -6395,7 +6405,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -6403,7 +6413,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -6411,7 +6421,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -6419,7 +6429,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -6427,7 +6437,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -6435,7 +6445,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -6443,7 +6453,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -6451,7 +6461,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -6459,7 +6469,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -6467,7 +6477,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -6475,7 +6485,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -6483,7 +6493,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -6491,7 +6501,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -6499,7 +6509,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -6507,7 +6517,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -6515,7 +6525,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -6523,7 +6533,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -6531,7 +6541,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -6539,7 +6549,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -6547,7 +6557,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -6555,7 +6565,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -6563,7 +6573,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -6571,7 +6581,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -6579,7 +6589,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -6587,7 +6597,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -6595,7 +6605,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -6603,7 +6613,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -6611,7 +6621,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -6619,7 +6629,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -6627,7 +6637,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -6635,7 +6645,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -6643,7 +6653,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -6651,7 +6661,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -6659,7 +6669,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -6667,7 +6677,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -6675,7 +6685,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -6683,7 +6693,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -6691,7 +6701,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -6699,7 +6709,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -6707,7 +6717,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -6715,7 +6725,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -6723,7 +6733,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -6731,7 +6741,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -6739,7 +6749,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -6747,7 +6757,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="B196">
         <v>1</v>
@@ -6755,7 +6765,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -6763,7 +6773,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -6771,7 +6781,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -6779,7 +6789,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -6787,7 +6797,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="B201">
         <v>1</v>
@@ -6795,7 +6805,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="B202">
         <v>1</v>
@@ -6803,7 +6813,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -6811,7 +6821,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -6819,7 +6829,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -6827,7 +6837,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -6835,7 +6845,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -6843,7 +6853,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -6851,7 +6861,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -6859,7 +6869,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="B210">
         <v>1</v>
@@ -6867,7 +6877,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="B211">
         <v>1</v>
@@ -6875,7 +6885,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -6883,7 +6893,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="B213">
         <v>1</v>
@@ -6891,7 +6901,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="B214">
         <v>1</v>
@@ -6899,7 +6909,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -6907,7 +6917,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -6915,7 +6925,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -6923,7 +6933,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -6931,7 +6941,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -6939,7 +6949,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -6947,7 +6957,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="B221">
         <v>1</v>
@@ -6955,7 +6965,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="B222">
         <v>1</v>
@@ -6963,7 +6973,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -6971,7 +6981,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -6979,7 +6989,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="B225">
         <v>1</v>
@@ -6987,7 +6997,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -6995,7 +7005,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -7003,7 +7013,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="B228">
         <v>1</v>
@@ -7011,7 +7021,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="B229">
         <v>1</v>
@@ -7019,7 +7029,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="B230">
         <v>1</v>
@@ -7027,7 +7037,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="B231">
         <v>1</v>
@@ -7035,7 +7045,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="B232">
         <v>1</v>
@@ -7043,7 +7053,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -7051,7 +7061,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -7059,7 +7069,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -7067,7 +7077,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -7075,7 +7085,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B237">
         <v>1</v>
@@ -7083,7 +7093,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="B238">
         <v>1</v>
@@ -7091,7 +7101,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -7099,7 +7109,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -7107,7 +7117,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -7115,7 +7125,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -7123,7 +7133,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B243">
         <v>1</v>
@@ -7131,7 +7141,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="B244">
         <v>1</v>
@@ -7139,7 +7149,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="B245">
         <v>1</v>
@@ -7147,7 +7157,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -7155,7 +7165,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -7163,7 +7173,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -7171,7 +7181,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -7179,7 +7189,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="B250">
         <v>1</v>
@@ -7187,7 +7197,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="B251">
         <v>1</v>
@@ -7195,7 +7205,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="B252">
         <v>1</v>
@@ -7203,7 +7213,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="B253">
         <v>1</v>
@@ -7211,7 +7221,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -7219,7 +7229,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="B255">
         <v>1</v>
@@ -7227,7 +7237,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="B256">
         <v>1</v>
@@ -7235,7 +7245,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="B257">
         <v>1</v>
@@ -7243,7 +7253,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="B258">
         <v>1</v>
@@ -7251,7 +7261,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="B259">
         <v>1</v>
@@ -7259,7 +7269,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="B260">
         <v>1</v>
@@ -7267,7 +7277,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -7275,7 +7285,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="B262">
         <v>1</v>
@@ -7283,7 +7293,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="B263">
         <v>1</v>
@@ -7291,7 +7301,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="B264">
         <v>1</v>
@@ -7299,7 +7309,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B265">
         <v>1</v>
@@ -7307,7 +7317,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -7315,7 +7325,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -7323,7 +7333,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -7331,7 +7341,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="B269">
         <v>1</v>
@@ -7339,7 +7349,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="B270">
         <v>1</v>
@@ -7347,7 +7357,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -7355,7 +7365,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -7363,7 +7373,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -7371,7 +7381,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -7379,7 +7389,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="B275">
         <v>1</v>
@@ -7387,7 +7397,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="B276">
         <v>1</v>
@@ -7395,7 +7405,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="B277">
         <v>1</v>
@@ -7403,7 +7413,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="B278">
         <v>1</v>
@@ -7411,7 +7421,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="B279">
         <v>1</v>
@@ -7419,7 +7429,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="B280">
         <v>1</v>
@@ -7427,7 +7437,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -7435,7 +7445,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -7443,7 +7453,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -7451,7 +7461,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="B284">
         <v>1</v>
@@ -7459,7 +7469,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="B285">
         <v>1</v>
@@ -7467,7 +7477,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="B286">
         <v>1</v>
@@ -7475,7 +7485,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="B287">
         <v>1</v>
@@ -7483,7 +7493,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="B288">
         <v>1</v>
@@ -7491,7 +7501,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -7499,7 +7509,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -7507,7 +7517,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -7515,7 +7525,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -7523,7 +7533,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="B293">
         <v>1</v>
@@ -7531,7 +7541,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="B294">
         <v>1</v>
@@ -7539,7 +7549,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="B295">
         <v>1</v>
@@ -7547,7 +7557,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B296">
         <v>1</v>
@@ -7555,7 +7565,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -7563,7 +7573,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="B298">
         <v>1</v>
@@ -7571,7 +7581,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="B299">
         <v>1</v>
@@ -7579,7 +7589,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="B300">
         <v>1</v>
@@ -7587,7 +7597,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -7595,7 +7605,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -7603,7 +7613,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="B303">
         <v>1</v>
@@ -7611,7 +7621,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="B304">
         <v>1</v>
@@ -7619,7 +7629,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="B305">
         <v>1</v>
@@ -7627,7 +7637,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="B306">
         <v>1</v>
@@ -7635,7 +7645,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -7643,7 +7653,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="B308">
         <v>1</v>
@@ -7651,7 +7661,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="B309">
         <v>1</v>
@@ -7659,7 +7669,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="B310">
         <v>1</v>
@@ -7667,7 +7677,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="B311">
         <v>1</v>
@@ -7675,7 +7685,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="B312">
         <v>1</v>
@@ -7683,7 +7693,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="B313">
         <v>1</v>
@@ -7691,7 +7701,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -7699,7 +7709,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -7707,7 +7717,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="B316">
         <v>1</v>
@@ -7715,7 +7725,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="B317">
         <v>1</v>
@@ -7723,7 +7733,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="B318">
         <v>1</v>
@@ -7731,7 +7741,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="B319">
         <v>1</v>
@@ -7739,7 +7749,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="B320">
         <v>1</v>
@@ -7747,7 +7757,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="B321">
         <v>1</v>
@@ -7755,7 +7765,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="B322">
         <v>1</v>
@@ -7763,7 +7773,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="B323">
         <v>1</v>
@@ -7771,7 +7781,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="B324">
         <v>1</v>
@@ -7779,7 +7789,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -7787,7 +7797,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="B326">
         <v>1</v>
@@ -7795,7 +7805,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="B327">
         <v>1</v>
@@ -7846,7 +7856,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>9</v>
@@ -7854,7 +7864,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -7862,7 +7872,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7870,7 +7880,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -7878,7 +7888,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -7886,7 +7896,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -7894,7 +7904,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -7902,7 +7912,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -7910,7 +7920,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -7918,7 +7928,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -7926,7 +7936,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -7934,7 +7944,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -7942,7 +7952,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -7950,7 +7960,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -7958,7 +7968,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -7966,7 +7976,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -7974,7 +7984,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -7982,7 +7992,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -7990,7 +8000,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -7998,7 +8008,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -8006,7 +8016,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -8014,7 +8024,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -8022,7 +8032,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -8030,7 +8040,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -8038,7 +8048,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -8046,7 +8056,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -8054,7 +8064,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -8062,7 +8072,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -8070,7 +8080,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -8078,7 +8088,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -8086,7 +8096,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -8094,7 +8104,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -8102,7 +8112,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -8110,7 +8120,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -8118,7 +8128,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -8126,7 +8136,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -8134,7 +8144,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -8142,7 +8152,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -8150,7 +8160,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -8158,7 +8168,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -8166,7 +8176,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -8174,7 +8184,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -8182,7 +8192,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -8190,7 +8200,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -8198,7 +8208,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -8206,7 +8216,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -8214,7 +8224,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -8222,7 +8232,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -8230,7 +8240,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -8238,7 +8248,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -8246,7 +8256,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -8254,7 +8264,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -8262,7 +8272,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -8270,7 +8280,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -8278,7 +8288,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -8286,7 +8296,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -8294,7 +8304,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -8302,7 +8312,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -8310,7 +8320,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -8318,7 +8328,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -8326,7 +8336,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -8334,7 +8344,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -8342,7 +8352,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -8350,7 +8360,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -8358,7 +8368,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -8366,7 +8376,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -8374,7 +8384,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -8382,7 +8392,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -8390,7 +8400,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -8398,7 +8408,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -8406,7 +8416,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -8414,7 +8424,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -8422,7 +8432,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -8430,7 +8440,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -8438,7 +8448,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -8446,7 +8456,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -8454,7 +8464,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -8462,7 +8472,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -8470,7 +8480,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -8478,7 +8488,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -8486,7 +8496,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -8494,7 +8504,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -8502,7 +8512,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -8510,7 +8520,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -8518,7 +8528,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -8526,7 +8536,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -8534,7 +8544,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -8542,7 +8552,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -8550,7 +8560,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -8558,7 +8568,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -8566,7 +8576,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -8574,7 +8584,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -8582,7 +8592,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -8590,7 +8600,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -8598,7 +8608,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -8606,7 +8616,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -8614,7 +8624,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -8622,7 +8632,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -8630,7 +8640,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -8638,7 +8648,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -8646,7 +8656,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -8654,7 +8664,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -8662,7 +8672,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -8670,7 +8680,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -8678,7 +8688,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -8686,7 +8696,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -8694,7 +8704,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -8702,7 +8712,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -8710,7 +8720,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -8718,7 +8728,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -8726,7 +8736,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -8734,7 +8744,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -8742,7 +8752,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -8750,7 +8760,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -8758,7 +8768,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -8766,7 +8776,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -8774,7 +8784,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -8782,7 +8792,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -8790,7 +8800,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -8798,7 +8808,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -8806,7 +8816,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -8814,7 +8824,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -8822,7 +8832,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -8830,7 +8840,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -8838,7 +8848,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -8846,7 +8856,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -8854,7 +8864,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -8862,7 +8872,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -8870,7 +8880,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -8878,7 +8888,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -8886,7 +8896,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -8894,7 +8904,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -8902,7 +8912,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -8910,7 +8920,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -8918,7 +8928,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -8926,7 +8936,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -8934,7 +8944,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -8942,7 +8952,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -8950,7 +8960,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -8958,7 +8968,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -8966,7 +8976,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -8974,7 +8984,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -8982,7 +8992,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -8990,7 +9000,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -8998,7 +9008,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -9006,7 +9016,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -9014,7 +9024,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -9022,7 +9032,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -9030,7 +9040,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -9038,7 +9048,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -9046,7 +9056,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -9054,7 +9064,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -9062,7 +9072,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -9070,7 +9080,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -9078,7 +9088,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -9086,7 +9096,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -9094,7 +9104,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -9102,7 +9112,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -9110,7 +9120,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -9118,7 +9128,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -9126,7 +9136,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -9134,7 +9144,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -9142,7 +9152,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -9150,7 +9160,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -9158,7 +9168,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -9166,7 +9176,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -9174,7 +9184,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -9182,7 +9192,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -9190,7 +9200,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -9198,7 +9208,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -9206,7 +9216,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -9214,7 +9224,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -9222,7 +9232,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -9230,7 +9240,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -9238,7 +9248,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -9246,7 +9256,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -9254,7 +9264,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -9262,7 +9272,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -9270,7 +9280,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -9278,7 +9288,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -9286,7 +9296,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -9294,7 +9304,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -9302,7 +9312,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -9310,7 +9320,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -9318,7 +9328,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -9326,7 +9336,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -9334,7 +9344,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -9342,7 +9352,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -9350,7 +9360,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -9358,7 +9368,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -9366,7 +9376,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -9374,7 +9384,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -9382,7 +9392,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="B196">
         <v>1</v>
@@ -9390,7 +9400,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -9398,7 +9408,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -9406,7 +9416,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -9414,7 +9424,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -9422,7 +9432,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="B201">
         <v>1</v>
@@ -9430,7 +9440,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="B202">
         <v>1</v>
